--- a/잡코리아 직무코드.xlsx
+++ b/잡코리아 직무코드.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t>직무 코드(대)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4002,6 +4002,733 @@
   </si>
   <si>
     <t>공공·복지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영·비즈니스기획</t>
+  </si>
+  <si>
+    <t>웹기획</t>
+  </si>
+  <si>
+    <t>마케팅기획</t>
+  </si>
+  <si>
+    <t>PL·PM·PO</t>
+  </si>
+  <si>
+    <t>컨설턴트</t>
+  </si>
+  <si>
+    <t>CEO·COO·CTO</t>
+  </si>
+  <si>
+    <t>AI기획자</t>
+  </si>
+  <si>
+    <t>AI사업전략</t>
+  </si>
+  <si>
+    <t>인사담당자</t>
+  </si>
+  <si>
+    <t>HRD·HRM</t>
+  </si>
+  <si>
+    <t>노무관리자</t>
+  </si>
+  <si>
+    <t>잡매니저</t>
+  </si>
+  <si>
+    <t>헤드헌터</t>
+  </si>
+  <si>
+    <t>직업상담사</t>
+  </si>
+  <si>
+    <t>브랜드마케터</t>
+  </si>
+  <si>
+    <t>퍼포먼스마케터</t>
+  </si>
+  <si>
+    <t>CRM마케터</t>
+  </si>
+  <si>
+    <t>온라인마케터</t>
+  </si>
+  <si>
+    <t>콘텐츠마케터</t>
+  </si>
+  <si>
+    <t>홍보</t>
+  </si>
+  <si>
+    <t>설문·리서치</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>카피라이터</t>
+  </si>
+  <si>
+    <t>크리에이티브디렉터</t>
+  </si>
+  <si>
+    <t>채널관리자</t>
+  </si>
+  <si>
+    <t>그로스해커</t>
+  </si>
+  <si>
+    <t>그래픽디자이너</t>
+  </si>
+  <si>
+    <t>3D디자이너</t>
+  </si>
+  <si>
+    <t>제품디자이너</t>
+  </si>
+  <si>
+    <t>산업디자이너</t>
+  </si>
+  <si>
+    <t>광고디자이너</t>
+  </si>
+  <si>
+    <t>시각디자이너</t>
+  </si>
+  <si>
+    <t>영상디자이너</t>
+  </si>
+  <si>
+    <t>웹디자이너</t>
+  </si>
+  <si>
+    <t>UI·UX디자이너</t>
+  </si>
+  <si>
+    <t>패션디자이너</t>
+  </si>
+  <si>
+    <t>편집디자이너</t>
+  </si>
+  <si>
+    <t>실내디자이너</t>
+  </si>
+  <si>
+    <t>공간디자이너</t>
+  </si>
+  <si>
+    <t>캐릭터디자이너</t>
+  </si>
+  <si>
+    <t>환경디자이너</t>
+  </si>
+  <si>
+    <t>아트디렉터</t>
+  </si>
+  <si>
+    <t>일러스트레이터</t>
+  </si>
+  <si>
+    <t>납품·배송기사</t>
+  </si>
+  <si>
+    <t>배달기사</t>
+  </si>
+  <si>
+    <t>수행·운전기사</t>
+  </si>
+  <si>
+    <t>화물·중장비기사</t>
+  </si>
+  <si>
+    <t>버스기사</t>
+  </si>
+  <si>
+    <t>택시기사</t>
+  </si>
+  <si>
+    <t>조종·기관사</t>
+  </si>
+  <si>
+    <t>인바운드상담원</t>
+  </si>
+  <si>
+    <t>아웃바운드상담원</t>
+  </si>
+  <si>
+    <t>고객센터관리자</t>
+  </si>
+  <si>
+    <t>요리사</t>
+  </si>
+  <si>
+    <t>조리사</t>
+  </si>
+  <si>
+    <t>제과제빵사</t>
+  </si>
+  <si>
+    <t>바리스타</t>
+  </si>
+  <si>
+    <t>셰프·주방장</t>
+  </si>
+  <si>
+    <t>카페·레스토랑매니저</t>
+  </si>
+  <si>
+    <t>홀서버</t>
+  </si>
+  <si>
+    <t>주방보조</t>
+  </si>
+  <si>
+    <t>소믈리에·바텐더</t>
+  </si>
+  <si>
+    <t>영양사</t>
+  </si>
+  <si>
+    <t>식품연구원</t>
+  </si>
+  <si>
+    <t>푸드스타일리스트</t>
+  </si>
+  <si>
+    <t>전기·전자엔지니어</t>
+  </si>
+  <si>
+    <t>기계엔지니어</t>
+  </si>
+  <si>
+    <t>설계엔지니어</t>
+  </si>
+  <si>
+    <t>설비엔지니어</t>
+  </si>
+  <si>
+    <t>반도체엔지니어</t>
+  </si>
+  <si>
+    <t>화학엔지니어</t>
+  </si>
+  <si>
+    <t>공정엔지니어</t>
+  </si>
+  <si>
+    <t>하드웨어엔지니어</t>
+  </si>
+  <si>
+    <t>통신엔지니어</t>
+  </si>
+  <si>
+    <t>RF엔지니어</t>
+  </si>
+  <si>
+    <t>필드엔지니어</t>
+  </si>
+  <si>
+    <t>R&amp;D·연구원</t>
+  </si>
+  <si>
+    <t>AI로봇엔지니어</t>
+  </si>
+  <si>
+    <t>유치원·보육교사</t>
+  </si>
+  <si>
+    <t>학교·특수학교교사</t>
+  </si>
+  <si>
+    <t>대학교수·강사</t>
+  </si>
+  <si>
+    <t>학원강사</t>
+  </si>
+  <si>
+    <t>외국어강사</t>
+  </si>
+  <si>
+    <t>기술·전문강사</t>
+  </si>
+  <si>
+    <t>학습지·방문교사</t>
+  </si>
+  <si>
+    <t>학원상담·운영</t>
+  </si>
+  <si>
+    <t>교직원·조교</t>
+  </si>
+  <si>
+    <t>교재개발·교수설계</t>
+  </si>
+  <si>
+    <t>AI교육컨설턴트</t>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>한의사</t>
+  </si>
+  <si>
+    <t>간호사</t>
+  </si>
+  <si>
+    <t>간호조무사</t>
+  </si>
+  <si>
+    <t>약사·한약사</t>
+  </si>
+  <si>
+    <t>의료기사</t>
+  </si>
+  <si>
+    <t>수의사</t>
+  </si>
+  <si>
+    <t>수의테크니션</t>
+  </si>
+  <si>
+    <t>병원코디네이터</t>
+  </si>
+  <si>
+    <t>원무행정</t>
+  </si>
+  <si>
+    <t>기타의료종사자</t>
+  </si>
+  <si>
+    <t>의료·약무보조</t>
+  </si>
+  <si>
+    <t>바이오·제약연구원</t>
+  </si>
+  <si>
+    <t>임상연구원</t>
+  </si>
+  <si>
+    <t>사회복지사</t>
+  </si>
+  <si>
+    <t>요양보호사</t>
+  </si>
+  <si>
+    <t>환경미화원</t>
+  </si>
+  <si>
+    <t>보건관리자</t>
+  </si>
+  <si>
+    <t>사서</t>
+  </si>
+  <si>
+    <t>자원봉사자</t>
+  </si>
+  <si>
+    <t>방역·방재기사</t>
+  </si>
+  <si>
+    <t>경영지원</t>
+  </si>
+  <si>
+    <t>사무담당자</t>
+  </si>
+  <si>
+    <t>총무</t>
+  </si>
+  <si>
+    <t>사무보조</t>
+  </si>
+  <si>
+    <t>법무담당자</t>
+  </si>
+  <si>
+    <t>비서</t>
+  </si>
+  <si>
+    <t>변호사</t>
+  </si>
+  <si>
+    <t>법무사</t>
+  </si>
+  <si>
+    <t>변리사</t>
+  </si>
+  <si>
+    <t>노무사</t>
+  </si>
+  <si>
+    <t>AI윤리전문가</t>
+  </si>
+  <si>
+    <t>회계담당자</t>
+  </si>
+  <si>
+    <t>경리</t>
+  </si>
+  <si>
+    <t>세무담당자</t>
+  </si>
+  <si>
+    <t>재무담당자</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
+    <t>IR·공시</t>
+  </si>
+  <si>
+    <t>회계사</t>
+  </si>
+  <si>
+    <t>세무사</t>
+  </si>
+  <si>
+    <t>관세사</t>
+  </si>
+  <si>
+    <t>백엔드개발자</t>
+  </si>
+  <si>
+    <t>프론트엔드개발자</t>
+  </si>
+  <si>
+    <t>웹개발자</t>
+  </si>
+  <si>
+    <t>앱개발자</t>
+  </si>
+  <si>
+    <t>시스템엔지니어</t>
+  </si>
+  <si>
+    <t>네트워크엔지니어</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>데이터엔지니어</t>
+  </si>
+  <si>
+    <t>데이터사이언티스트</t>
+  </si>
+  <si>
+    <t>보안엔지니어</t>
+  </si>
+  <si>
+    <t>소프트웨어개발자</t>
+  </si>
+  <si>
+    <t>게임개발자</t>
+  </si>
+  <si>
+    <t>하드웨어개발자</t>
+  </si>
+  <si>
+    <t>AI/ML엔지니어</t>
+  </si>
+  <si>
+    <t>블록체인개발자</t>
+  </si>
+  <si>
+    <t>클라우드엔지니어</t>
+  </si>
+  <si>
+    <t>웹퍼블리셔</t>
+  </si>
+  <si>
+    <t>IT컨설팅</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>AI/ML연구원</t>
+  </si>
+  <si>
+    <t>데이터분석가</t>
+  </si>
+  <si>
+    <t>데이터라벨러</t>
+  </si>
+  <si>
+    <t>프롬프트엔지니어</t>
+  </si>
+  <si>
+    <t>AI보안전문가</t>
+  </si>
+  <si>
+    <t>MLOps엔지니어</t>
+  </si>
+  <si>
+    <t>AI서비스개발자</t>
+  </si>
+  <si>
+    <t>물류관리자</t>
+  </si>
+  <si>
+    <t>구매관리자</t>
+  </si>
+  <si>
+    <t>자재관리자</t>
+  </si>
+  <si>
+    <t>유통관리자</t>
+  </si>
+  <si>
+    <t>무역사무원</t>
+  </si>
+  <si>
+    <t>제품영업</t>
+  </si>
+  <si>
+    <t>서비스영업</t>
+  </si>
+  <si>
+    <t>해외영업</t>
+  </si>
+  <si>
+    <t>광고영업</t>
+  </si>
+  <si>
+    <t>금융영업</t>
+  </si>
+  <si>
+    <t>법인영업</t>
+  </si>
+  <si>
+    <t>IT·기술영업</t>
+  </si>
+  <si>
+    <t>영업관리</t>
+  </si>
+  <si>
+    <t>영업지원</t>
+  </si>
+  <si>
+    <t>금융사무</t>
+  </si>
+  <si>
+    <t>보험설계사</t>
+  </si>
+  <si>
+    <t>손해사정사</t>
+  </si>
+  <si>
+    <t>심사</t>
+  </si>
+  <si>
+    <t>은행원·텔러</t>
+  </si>
+  <si>
+    <t>계리사</t>
+  </si>
+  <si>
+    <t>펀드매니저</t>
+  </si>
+  <si>
+    <t>애널리스트</t>
+  </si>
+  <si>
+    <t>설치·수리기사</t>
+  </si>
+  <si>
+    <t>정비기사</t>
+  </si>
+  <si>
+    <t>호텔종사자</t>
+  </si>
+  <si>
+    <t>여행에이전트</t>
+  </si>
+  <si>
+    <t>매장관리자</t>
+  </si>
+  <si>
+    <t>뷰티·미용사</t>
+  </si>
+  <si>
+    <t>애견미용·훈련</t>
+  </si>
+  <si>
+    <t>안내데스크·리셉셔니스트</t>
+  </si>
+  <si>
+    <t>경호·경비</t>
+  </si>
+  <si>
+    <t>운영보조·매니저</t>
+  </si>
+  <si>
+    <t>이벤트·웨딩플래너</t>
+  </si>
+  <si>
+    <t>주차·주유원</t>
+  </si>
+  <si>
+    <t>스타일리스트</t>
+  </si>
+  <si>
+    <t>장례지도사</t>
+  </si>
+  <si>
+    <t>가사도우미</t>
+  </si>
+  <si>
+    <t>승무원</t>
+  </si>
+  <si>
+    <t>플로리스트</t>
+  </si>
+  <si>
+    <t>생산직종사자</t>
+  </si>
+  <si>
+    <t>생산·공정관리자</t>
+  </si>
+  <si>
+    <t>품질관리자</t>
+  </si>
+  <si>
+    <t>포장·가공담당자</t>
+  </si>
+  <si>
+    <t>공장관리자</t>
+  </si>
+  <si>
+    <t>용접사</t>
+  </si>
+  <si>
+    <t>건축가</t>
+  </si>
+  <si>
+    <t>건축기사</t>
+  </si>
+  <si>
+    <t>시공기사</t>
+  </si>
+  <si>
+    <t>전기기사</t>
+  </si>
+  <si>
+    <t>토목기사</t>
+  </si>
+  <si>
+    <t>시설관리자</t>
+  </si>
+  <si>
+    <t>현장관리자</t>
+  </si>
+  <si>
+    <t>안전관리자</t>
+  </si>
+  <si>
+    <t>공무</t>
+  </si>
+  <si>
+    <t>소방설비</t>
+  </si>
+  <si>
+    <t>현장보조</t>
+  </si>
+  <si>
+    <t>감리원</t>
+  </si>
+  <si>
+    <t>도시·조경설계</t>
+  </si>
+  <si>
+    <t>환경기사</t>
+  </si>
+  <si>
+    <t>비파괴검사원</t>
+  </si>
+  <si>
+    <t>공인중개사</t>
+  </si>
+  <si>
+    <t>감정평가사</t>
+  </si>
+  <si>
+    <t>분양매니저</t>
+  </si>
+  <si>
+    <t>PD·감독</t>
+  </si>
+  <si>
+    <t>포토그래퍼</t>
+  </si>
+  <si>
+    <t>영상편집자</t>
+  </si>
+  <si>
+    <t>사운드엔지니어</t>
+  </si>
+  <si>
+    <t>스태프</t>
+  </si>
+  <si>
+    <t>출판·편집</t>
+  </si>
+  <si>
+    <t>배급·제작자</t>
+  </si>
+  <si>
+    <t>콘텐츠에디터</t>
+  </si>
+  <si>
+    <t>크리에이터</t>
+  </si>
+  <si>
+    <t>기자</t>
+  </si>
+  <si>
+    <t>작가</t>
+  </si>
+  <si>
+    <t>아나운서</t>
+  </si>
+  <si>
+    <t>리포터·성우</t>
+  </si>
+  <si>
+    <t>MC·쇼호스트</t>
+  </si>
+  <si>
+    <t>모델</t>
+  </si>
+  <si>
+    <t>연예인·매니저</t>
+  </si>
+  <si>
+    <t>인플루언서</t>
+  </si>
+  <si>
+    <t>통번역사</t>
+  </si>
+  <si>
+    <t>큐레이터</t>
+  </si>
+  <si>
+    <t>음반기획</t>
+  </si>
+  <si>
+    <t>스포츠강사</t>
+  </si>
+  <si>
+    <t>AI콘텐츠크리에이터</t>
+  </si>
+  <si>
+    <t>AE(광고기획자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4009,6 +4736,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -4076,7 +4806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4091,6 +4821,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4372,10 +5105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I244"/>
+  <dimension ref="B2:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4418,13 +5151,11 @@
       <c r="D3" s="1">
         <v>1000185</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>LEFT(I3, FIND("(", I3) - 1)</f>
-        <v>경영·비즈니스기획</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>MID(I3, FIND("(", I3)+1, FIND(")", I3)-FIND("(", I3)-1)</f>
-        <v>4,012</v>
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4012</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
@@ -4436,13 +5167,11 @@
       <c r="D4" s="2">
         <v>1000186</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E10" si="0">LEFT(I4, FIND("(", I4) - 1)</f>
-        <v>웹기획</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F10" si="1">MID(I4, FIND("(", I4)+1, FIND(")", I4)-FIND("(", I4)-1)</f>
-        <v>1,788</v>
+      <c r="E4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1788</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
@@ -4454,13 +5183,11 @@
       <c r="D5" s="1">
         <v>1000187</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>마케팅기획</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3,362</v>
+      <c r="E5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3362</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -4472,13 +5199,11 @@
       <c r="D6" s="2">
         <v>1000188</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PL·PM·PO</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1,056</v>
+      <c r="E6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1056</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>8</v>
@@ -4490,12 +5215,10 @@
       <c r="D7" s="1">
         <v>1000189</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>컨설턴트</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="6">
         <v>639</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -4508,12 +5231,10 @@
       <c r="D8" s="2">
         <v>1000190</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CEO·COO·CTO</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="6">
         <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -4526,12 +5247,10 @@
       <c r="D9" s="2">
         <v>1000414</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AI기획자</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="6">
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -4544,12 +5263,10 @@
       <c r="D10" s="2">
         <v>1000415</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AI사업전략</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="6">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -4566,13 +5283,11 @@
       <c r="D11" s="2">
         <v>1000201</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" ref="E11:E74" si="2">LEFT(I11, FIND("(", I11) - 1)</f>
-        <v>인사담당자</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" ref="F11:F74" si="3">MID(I11, FIND("(", I11)+1, FIND(")", I11)-FIND("(", I11)-1)</f>
-        <v>2,251</v>
+      <c r="E11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2251</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
@@ -4584,13 +5299,11 @@
       <c r="D12" s="2">
         <v>1000202</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HRD·HRM</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,512</v>
+      <c r="E12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1512</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
@@ -4602,12 +5315,10 @@
       <c r="D13" s="2">
         <v>1000203</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>노무관리자</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E13" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="6">
         <v>388</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -4620,12 +5331,10 @@
       <c r="D14" s="2">
         <v>1000204</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>잡매니저</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="6">
         <v>303</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4638,12 +5347,10 @@
       <c r="D15" s="2">
         <v>1000205</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>헤드헌터</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="6">
         <v>398</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4656,12 +5363,10 @@
       <c r="D16" s="2">
         <v>1000206</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>직업상담사</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="7">
         <v>194</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -4678,13 +5383,11 @@
       <c r="D17" s="2">
         <v>1000216</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>AE</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>광고기획자</v>
+      <c r="E17" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1432</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>19</v>
@@ -4696,13 +5399,11 @@
       <c r="D18" s="2">
         <v>1000217</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>브랜드마케터</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,431</v>
+      <c r="E18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2431</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>20</v>
@@ -4714,13 +5415,11 @@
       <c r="D19" s="2">
         <v>1000218</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>퍼포먼스마케터</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,821</v>
+      <c r="E19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1821</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -4732,12 +5431,10 @@
       <c r="D20" s="2">
         <v>1000219</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CRM마케터</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="6">
         <v>709</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -4750,13 +5447,11 @@
       <c r="D21" s="2">
         <v>1000220</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>온라인마케터</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>4,852</v>
+      <c r="E21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4852</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -4768,13 +5463,11 @@
       <c r="D22" s="2">
         <v>1000221</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>콘텐츠마케터</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,364</v>
+      <c r="E22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2364</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
@@ -4786,13 +5479,11 @@
       <c r="D23" s="2">
         <v>1000222</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>홍보</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,030</v>
+      <c r="E23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2030</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>25</v>
@@ -4804,12 +5495,10 @@
       <c r="D24" s="2">
         <v>1000223</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>설문·리서치</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="6">
         <v>311</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -4822,13 +5511,11 @@
       <c r="D25" s="2">
         <v>1000224</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MD</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,990</v>
+      <c r="E25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3990</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
@@ -4840,12 +5527,10 @@
       <c r="D26" s="2">
         <v>1000225</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>카피라이터</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="6">
         <v>79</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -4858,12 +5543,10 @@
       <c r="D27" s="2">
         <v>1000226</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>크리에이티브디렉터</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="6">
         <v>112</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -4876,13 +5559,11 @@
       <c r="D28" s="2">
         <v>1000227</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>채널관리자</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,233</v>
+      <c r="E28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1233</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>30</v>
@@ -4894,12 +5575,10 @@
       <c r="D29" s="2">
         <v>1000228</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>그로스해커</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="6">
         <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -4911,13 +5590,11 @@
       <c r="C30" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>그래픽디자이너</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,457</v>
+      <c r="E30" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1457</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>32</v>
@@ -4926,12 +5603,10 @@
     <row r="31" spans="2:9">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3D디자이너</v>
-      </c>
-      <c r="F31" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="6">
         <v>646</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4941,12 +5616,10 @@
     <row r="32" spans="2:9">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>제품디자이너</v>
-      </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="6">
         <v>805</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -4956,12 +5629,10 @@
     <row r="33" spans="2:9">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>산업디자이너</v>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="6">
         <v>281</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -4971,13 +5642,11 @@
     <row r="34" spans="2:9">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>광고디자이너</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,003</v>
+      <c r="E34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1003</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>36</v>
@@ -4986,13 +5655,11 @@
     <row r="35" spans="2:9">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>시각디자이너</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,407</v>
+      <c r="E35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1407</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>37</v>
@@ -5001,12 +5668,10 @@
     <row r="36" spans="2:9">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>영상디자이너</v>
-      </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E36" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="6">
         <v>623</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5016,13 +5681,11 @@
     <row r="37" spans="2:9">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>웹디자이너</v>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,984</v>
+      <c r="E37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1984</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>39</v>
@@ -5031,13 +5694,11 @@
     <row r="38" spans="2:9">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>UI·UX디자이너</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,158</v>
+      <c r="E38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1158</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>40</v>
@@ -5046,12 +5707,10 @@
     <row r="39" spans="2:9">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>패션디자이너</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="6">
         <v>941</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -5061,12 +5720,10 @@
     <row r="40" spans="2:9">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>편집디자이너</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40" s="6">
         <v>652</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -5076,12 +5733,10 @@
     <row r="41" spans="2:9">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>실내디자이너</v>
-      </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="6">
         <v>919</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -5091,12 +5746,10 @@
     <row r="42" spans="2:9">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>공간디자이너</v>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="6">
         <v>772</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -5106,12 +5759,10 @@
     <row r="43" spans="2:9">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>캐릭터디자이너</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="6">
         <v>460</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -5121,12 +5772,10 @@
     <row r="44" spans="2:9">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>환경디자이너</v>
-      </c>
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F44" s="6">
         <v>86</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -5136,12 +5785,10 @@
     <row r="45" spans="2:9">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>아트디렉터</v>
-      </c>
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="6">
         <v>103</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -5151,12 +5798,10 @@
     <row r="46" spans="2:9">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>일러스트레이터</v>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E46" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="6">
         <v>297</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -5168,13 +5813,11 @@
       <c r="C47" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>납품·배송기사</v>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,274</v>
+      <c r="E47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2274</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
@@ -5183,12 +5826,10 @@
     <row r="48" spans="2:9">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>배달기사</v>
-      </c>
-      <c r="F48" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="6">
         <v>611</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -5198,13 +5839,11 @@
     <row r="49" spans="2:9">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>수행·운전기사</v>
-      </c>
-      <c r="F49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,218</v>
+      <c r="E49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1218</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>51</v>
@@ -5213,13 +5852,11 @@
     <row r="50" spans="2:9">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>화물·중장비기사</v>
-      </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,582</v>
+      <c r="E50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1582</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>52</v>
@@ -5228,12 +5865,10 @@
     <row r="51" spans="2:9">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>버스기사</v>
-      </c>
-      <c r="F51" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="6">
         <v>193</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -5243,12 +5878,10 @@
     <row r="52" spans="2:9">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>택시기사</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="6">
         <v>63</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -5258,12 +5891,10 @@
     <row r="53" spans="2:9">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>조종·기관사</v>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" s="6">
         <v>53</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -5275,13 +5906,11 @@
       <c r="C54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>인바운드상담원</v>
-      </c>
-      <c r="F54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>5,364</v>
+      <c r="E54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="8">
+        <v>5364</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>57</v>
@@ -5290,13 +5919,11 @@
     <row r="55" spans="2:9">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>아웃바운드상담원</v>
-      </c>
-      <c r="F55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,311</v>
+      <c r="E55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3311</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>58</v>
@@ -5305,13 +5932,11 @@
     <row r="56" spans="2:9">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>고객센터관리자</v>
-      </c>
-      <c r="F56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,377</v>
+      <c r="E56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1377</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>59</v>
@@ -5322,13 +5947,11 @@
       <c r="C57" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>요리사</v>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,512</v>
+      <c r="E57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3512</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>60</v>
@@ -5337,13 +5960,11 @@
     <row r="58" spans="2:9">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>조리사</v>
-      </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,033</v>
+      <c r="E58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="8">
+        <v>3033</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>61</v>
@@ -5352,13 +5973,11 @@
     <row r="59" spans="2:9">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>제과제빵사</v>
-      </c>
-      <c r="F59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,653</v>
+      <c r="E59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1653</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>62</v>
@@ -5367,13 +5986,11 @@
     <row r="60" spans="2:9">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>바리스타</v>
-      </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,905</v>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1905</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>63</v>
@@ -5382,13 +5999,11 @@
     <row r="61" spans="2:9">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>셰프·주방장</v>
-      </c>
-      <c r="F61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,652</v>
+      <c r="E61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1652</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>64</v>
@@ -5397,13 +6012,11 @@
     <row r="62" spans="2:9">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>카페·레스토랑매니저</v>
-      </c>
-      <c r="F62" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,335</v>
+      <c r="E62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="8">
+        <v>2335</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>65</v>
@@ -5412,13 +6025,11 @@
     <row r="63" spans="2:9">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>홀서버</v>
-      </c>
-      <c r="F63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,001</v>
+      <c r="E63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F63" s="8">
+        <v>3001</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>66</v>
@@ -5427,13 +6038,11 @@
     <row r="64" spans="2:9">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>주방보조</v>
-      </c>
-      <c r="F64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,640</v>
+      <c r="E64" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" s="8">
+        <v>2640</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>67</v>
@@ -5442,12 +6051,10 @@
     <row r="65" spans="2:9">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>소믈리에·바텐더</v>
-      </c>
-      <c r="F65" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E65" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65" s="6">
         <v>323</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -5457,12 +6064,10 @@
     <row r="66" spans="2:9">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>영양사</v>
-      </c>
-      <c r="F66" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F66" s="6">
         <v>196</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -5472,12 +6077,10 @@
     <row r="67" spans="2:9">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>식품연구원</v>
-      </c>
-      <c r="F67" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E67" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="6">
         <v>244</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -5487,12 +6090,10 @@
     <row r="68" spans="2:9">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="E68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>푸드스타일리스트</v>
-      </c>
-      <c r="F68" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F68" s="6">
         <v>56</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -5504,13 +6105,11 @@
       <c r="C69" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>전기·전자엔지니어</v>
-      </c>
-      <c r="F69" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,243</v>
+      <c r="E69" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2243</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>72</v>
@@ -5519,13 +6118,11 @@
     <row r="70" spans="2:9">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="E70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>기계엔지니어</v>
-      </c>
-      <c r="F70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2,551</v>
+      <c r="E70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2551</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>73</v>
@@ -5534,13 +6131,11 @@
     <row r="71" spans="2:9">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>설계엔지니어</v>
-      </c>
-      <c r="F71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3,062</v>
+      <c r="E71" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3062</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>74</v>
@@ -5549,12 +6144,10 @@
     <row r="72" spans="2:9">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="E72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>설비엔지니어</v>
-      </c>
-      <c r="F72" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E72" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" s="6">
         <v>807</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -5564,13 +6157,11 @@
     <row r="73" spans="2:9">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="E73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>반도체엔지니어</v>
-      </c>
-      <c r="F73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1,125</v>
+      <c r="E73" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1125</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>76</v>
@@ -5579,12 +6170,10 @@
     <row r="74" spans="2:9">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="E74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>화학엔지니어</v>
-      </c>
-      <c r="F74" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E74" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" s="6">
         <v>594</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -5594,12 +6183,10 @@
     <row r="75" spans="2:9">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="E75" s="2" t="str">
-        <f t="shared" ref="E75:E77" si="4">LEFT(I75, FIND("(", I75) - 1)</f>
-        <v>공정엔지니어</v>
-      </c>
-      <c r="F75" s="2" t="str">
-        <f t="shared" ref="F75:F77" si="5">MID(I75, FIND("(", I75)+1, FIND(")", I75)-FIND("(", I75)-1)</f>
+      <c r="E75" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F75" s="6">
         <v>772</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -5609,12 +6196,10 @@
     <row r="76" spans="2:9">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>하드웨어엔지니어</v>
-      </c>
-      <c r="F76" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="E76" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F76" s="6">
         <v>608</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -5624,12 +6209,10 @@
     <row r="77" spans="2:9">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>통신엔지니어</v>
-      </c>
-      <c r="F77" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="E77" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F77" s="6">
         <v>418</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -5639,12 +6222,10 @@
     <row r="78" spans="2:9">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="E78" s="2" t="str">
-        <f t="shared" ref="E78:E141" si="6">LEFT(I78, FIND("(", I78) - 1)</f>
-        <v>RF엔지니어</v>
-      </c>
-      <c r="F78" s="2" t="str">
-        <f t="shared" ref="F78:F141" si="7">MID(I78, FIND("(", I78)+1, FIND(")", I78)-FIND("(", I78)-1)</f>
+      <c r="E78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F78" s="6">
         <v>100</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -5654,12 +6235,10 @@
     <row r="79" spans="2:9">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>필드엔지니어</v>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E79" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" s="6">
         <v>708</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -5669,13 +6248,11 @@
     <row r="80" spans="2:9">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>R&amp;D·연구원</v>
-      </c>
-      <c r="F80" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,520</v>
+      <c r="E80" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F80" s="8">
+        <v>2520</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>83</v>
@@ -5684,12 +6261,10 @@
     <row r="81" spans="2:9">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="E81" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>AI로봇엔지니어</v>
-      </c>
-      <c r="F81" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E81" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" s="6">
         <v>27</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -5701,13 +6276,11 @@
       <c r="C82" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>유치원·보육교사</v>
-      </c>
-      <c r="F82" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,140</v>
+      <c r="E82" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1140</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>85</v>
@@ -5716,12 +6289,10 @@
     <row r="83" spans="2:9">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="E83" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>학교·특수학교교사</v>
-      </c>
-      <c r="F83" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E83" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="6">
         <v>596</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -5731,12 +6302,10 @@
     <row r="84" spans="2:9">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="E84" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>대학교수·강사</v>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F84" s="6">
         <v>59</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -5746,13 +6315,11 @@
     <row r="85" spans="2:9">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>학원강사</v>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,369</v>
+      <c r="E85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2369</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>88</v>
@@ -5761,13 +6328,11 @@
     <row r="86" spans="2:9">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>외국어강사</v>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,107</v>
+      <c r="E86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1107</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>89</v>
@@ -5776,12 +6341,10 @@
     <row r="87" spans="2:9">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>기술·전문강사</v>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" s="6">
         <v>823</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -5791,12 +6354,10 @@
     <row r="88" spans="2:9">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>학습지·방문교사</v>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E88" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F88" s="6">
         <v>583</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -5806,13 +6367,11 @@
     <row r="89" spans="2:9">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>학원상담·운영</v>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,497</v>
+      <c r="E89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1497</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>92</v>
@@ -5821,12 +6380,10 @@
     <row r="90" spans="2:9">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>교직원·조교</v>
-      </c>
-      <c r="F90" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E90" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" s="6">
         <v>475</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -5836,12 +6393,10 @@
     <row r="91" spans="2:9">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>교재개발·교수설계</v>
-      </c>
-      <c r="F91" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" s="6">
         <v>662</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -5851,12 +6406,10 @@
     <row r="92" spans="2:9">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>AI교육컨설턴트</v>
-      </c>
-      <c r="F92" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" s="6">
         <v>29</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -5868,12 +6421,10 @@
       <c r="C93" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E93" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>의사</v>
-      </c>
-      <c r="F93" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E93" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" s="6">
         <v>56</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -5883,12 +6434,10 @@
     <row r="94" spans="2:9">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>한의사</v>
-      </c>
-      <c r="F94" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E94" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F94" s="6">
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
@@ -5898,13 +6447,11 @@
     <row r="95" spans="2:9">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>간호사</v>
-      </c>
-      <c r="F95" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,065</v>
+      <c r="E95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" s="8">
+        <v>1065</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>98</v>
@@ -5913,13 +6460,11 @@
     <row r="96" spans="2:9">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>간호조무사</v>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,634</v>
+      <c r="E96" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" s="8">
+        <v>2634</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>99</v>
@@ -5928,12 +6473,10 @@
     <row r="97" spans="2:9">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>약사·한약사</v>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E97" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" s="6">
         <v>139</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -5943,12 +6486,10 @@
     <row r="98" spans="2:9">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>의료기사</v>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E98" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="6">
         <v>771</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -5958,12 +6499,10 @@
     <row r="99" spans="2:9">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="E99" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>수의사</v>
-      </c>
-      <c r="F99" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E99" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F99" s="6">
         <v>14</v>
       </c>
       <c r="I99" s="2" t="s">
@@ -5973,12 +6512,10 @@
     <row r="100" spans="2:9">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>수의테크니션</v>
-      </c>
-      <c r="F100" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E100" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F100" s="6">
         <v>129</v>
       </c>
       <c r="I100" s="2" t="s">
@@ -5988,13 +6525,11 @@
     <row r="101" spans="2:9">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>병원코디네이터</v>
-      </c>
-      <c r="F101" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,429</v>
+      <c r="E101" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F101" s="8">
+        <v>1429</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>104</v>
@@ -6003,12 +6538,10 @@
     <row r="102" spans="2:9">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>원무행정</v>
-      </c>
-      <c r="F102" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E102" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F102" s="6">
         <v>771</v>
       </c>
       <c r="I102" s="2" t="s">
@@ -6018,13 +6551,11 @@
     <row r="103" spans="2:9">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>기타의료종사자</v>
-      </c>
-      <c r="F103" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>16,046</v>
+      <c r="E103" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F103" s="8">
+        <v>16046</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>106</v>
@@ -6033,12 +6564,10 @@
     <row r="104" spans="2:9">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>의료·약무보조</v>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E104" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F104" s="6">
         <v>181</v>
       </c>
       <c r="I104" s="2" t="s">
@@ -6048,13 +6577,11 @@
     <row r="105" spans="2:9">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>바이오·제약연구원</v>
-      </c>
-      <c r="F105" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,529</v>
+      <c r="E105" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F105" s="8">
+        <v>1529</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>108</v>
@@ -6063,12 +6590,10 @@
     <row r="106" spans="2:9">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>임상연구원</v>
-      </c>
-      <c r="F106" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E106" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F106" s="6">
         <v>179</v>
       </c>
       <c r="I106" s="2" t="s">
@@ -6080,13 +6605,11 @@
       <c r="C107" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>사회복지사</v>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>4,050</v>
+      <c r="E107" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F107" s="8">
+        <v>4050</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>110</v>
@@ -6095,12 +6618,10 @@
     <row r="108" spans="2:9">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>요양보호사</v>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E108" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F108" s="6">
         <v>126</v>
       </c>
       <c r="I108" s="2" t="s">
@@ -6110,12 +6631,10 @@
     <row r="109" spans="2:9">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>환경미화원</v>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E109" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F109" s="6">
         <v>518</v>
       </c>
       <c r="I109" s="2" t="s">
@@ -6125,12 +6644,10 @@
     <row r="110" spans="2:9">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>보건관리자</v>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E110" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F110" s="6">
         <v>109</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -6140,12 +6657,10 @@
     <row r="111" spans="2:9">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>사서</v>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E111" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F111" s="6">
         <v>34</v>
       </c>
       <c r="I111" s="2" t="s">
@@ -6155,12 +6670,10 @@
     <row r="112" spans="2:9">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>자원봉사자</v>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E112" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F112" s="6">
         <v>5</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -6170,12 +6683,10 @@
     <row r="113" spans="2:9">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>방역·방재기사</v>
-      </c>
-      <c r="F113" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E113" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" s="6">
         <v>109</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -6187,13 +6698,11 @@
       <c r="C114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>경영지원</v>
-      </c>
-      <c r="F114" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,033</v>
+      <c r="E114" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F114" s="8">
+        <v>2033</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>118</v>
@@ -6202,13 +6711,11 @@
     <row r="115" spans="2:9">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>사무담당자</v>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>5,969</v>
+      <c r="E115" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F115" s="8">
+        <v>5969</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>119</v>
@@ -6217,13 +6724,11 @@
     <row r="116" spans="2:9">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>총무</v>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,325</v>
+      <c r="E116" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" s="8">
+        <v>2325</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>120</v>
@@ -6232,13 +6737,11 @@
     <row r="117" spans="2:9">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>사무보조</v>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>4,401</v>
+      <c r="E117" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F117" s="8">
+        <v>4401</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>121</v>
@@ -6247,12 +6750,10 @@
     <row r="118" spans="2:9">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>법무담당자</v>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E118" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F118" s="6">
         <v>685</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -6262,12 +6763,10 @@
     <row r="119" spans="2:9">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>비서</v>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E119" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F119" s="6">
         <v>766</v>
       </c>
       <c r="I119" s="2" t="s">
@@ -6277,12 +6776,10 @@
     <row r="120" spans="2:9">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>변호사</v>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F120" s="6">
         <v>248</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -6292,12 +6789,10 @@
     <row r="121" spans="2:9">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>법무사</v>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E121" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F121" s="6">
         <v>65</v>
       </c>
       <c r="I121" s="2" t="s">
@@ -6307,12 +6802,10 @@
     <row r="122" spans="2:9">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>변리사</v>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E122" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F122" s="6">
         <v>92</v>
       </c>
       <c r="I122" s="2" t="s">
@@ -6322,12 +6815,10 @@
     <row r="123" spans="2:9">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>노무사</v>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" s="6">
         <v>90</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -6337,12 +6828,10 @@
     <row r="124" spans="2:9">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>AI윤리전문가</v>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E124" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F124" s="6">
         <v>1</v>
       </c>
       <c r="I124" s="2" t="s">
@@ -6354,13 +6843,11 @@
       <c r="C125" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>회계담당자</v>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>5,788</v>
+      <c r="E125" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F125" s="8">
+        <v>5788</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>130</v>
@@ -6369,13 +6856,11 @@
     <row r="126" spans="2:9">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>경리</v>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,956</v>
+      <c r="E126" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1956</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>131</v>
@@ -6384,13 +6869,11 @@
     <row r="127" spans="2:9">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>세무담당자</v>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,200</v>
+      <c r="E127" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F127" s="8">
+        <v>1200</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>132</v>
@@ -6399,13 +6882,11 @@
     <row r="128" spans="2:9">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>재무담당자</v>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,757</v>
+      <c r="E128" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F128" s="8">
+        <v>1757</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>133</v>
@@ -6414,12 +6895,10 @@
     <row r="129" spans="2:9">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>감사</v>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E129" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F129" s="6">
         <v>234</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -6429,12 +6908,10 @@
     <row r="130" spans="2:9">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>IR·공시</v>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E130" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130" s="6">
         <v>304</v>
       </c>
       <c r="I130" s="2" t="s">
@@ -6444,12 +6921,10 @@
     <row r="131" spans="2:9">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>회계사</v>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E131" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F131" s="6">
         <v>177</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -6459,12 +6934,10 @@
     <row r="132" spans="2:9">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>세무사</v>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E132" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" s="6">
         <v>125</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -6474,12 +6947,10 @@
     <row r="133" spans="2:9">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>관세사</v>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="6">
         <v>56</v>
       </c>
       <c r="I133" s="2" t="s">
@@ -6491,13 +6962,11 @@
       <c r="C134" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>백엔드개발자</v>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,789</v>
+      <c r="E134" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F134" s="8">
+        <v>1789</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>140</v>
@@ -6506,13 +6975,11 @@
     <row r="135" spans="2:9">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>프론트엔드개발자</v>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,272</v>
+      <c r="E135" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F135" s="8">
+        <v>1272</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>141</v>
@@ -6521,13 +6988,11 @@
     <row r="136" spans="2:9">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>웹개발자</v>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,895</v>
+      <c r="E136" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F136" s="8">
+        <v>1895</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>142</v>
@@ -6536,12 +7001,10 @@
     <row r="137" spans="2:9">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>앱개발자</v>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E137" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F137" s="6">
         <v>801</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -6551,13 +7014,11 @@
     <row r="138" spans="2:9">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>시스템엔지니어</v>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>2,161</v>
+      <c r="E138" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F138" s="8">
+        <v>2161</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>144</v>
@@ -6566,13 +7027,11 @@
     <row r="139" spans="2:9">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>네트워크엔지니어</v>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>1,077</v>
+      <c r="E139" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F139" s="8">
+        <v>1077</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>145</v>
@@ -6581,12 +7040,10 @@
     <row r="140" spans="2:9">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>DBA</v>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E140" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F140" s="6">
         <v>363</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -6596,12 +7053,10 @@
     <row r="141" spans="2:9">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>데이터엔지니어</v>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="E141" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F141" s="6">
         <v>479</v>
       </c>
       <c r="I141" s="2" t="s">
@@ -6611,12 +7066,10 @@
     <row r="142" spans="2:9">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="E142" s="2" t="str">
-        <f t="shared" ref="E142:E205" si="8">LEFT(I142, FIND("(", I142) - 1)</f>
-        <v>데이터사이언티스트</v>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" ref="F142:F205" si="9">MID(I142, FIND("(", I142)+1, FIND(")", I142)-FIND("(", I142)-1)</f>
+      <c r="E142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F142" s="6">
         <v>353</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -6626,12 +7079,10 @@
     <row r="143" spans="2:9">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>보안엔지니어</v>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E143" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" s="6">
         <v>928</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -6641,13 +7092,11 @@
     <row r="144" spans="2:9">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>소프트웨어개발자</v>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2,255</v>
+      <c r="E144" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F144" s="8">
+        <v>2255</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>150</v>
@@ -6656,12 +7105,10 @@
     <row r="145" spans="2:9">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>게임개발자</v>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E145" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F145" s="6">
         <v>882</v>
       </c>
       <c r="I145" s="2" t="s">
@@ -6671,12 +7118,10 @@
     <row r="146" spans="2:9">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>하드웨어개발자</v>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E146" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F146" s="6">
         <v>594</v>
       </c>
       <c r="I146" s="2" t="s">
@@ -6686,12 +7131,10 @@
     <row r="147" spans="2:9">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>AI/ML엔지니어</v>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E147" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F147" s="6">
         <v>577</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -6701,12 +7144,10 @@
     <row r="148" spans="2:9">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>블록체인개발자</v>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E148" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F148" s="6">
         <v>31</v>
       </c>
       <c r="I148" s="2" t="s">
@@ -6716,12 +7157,10 @@
     <row r="149" spans="2:9">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>클라우드엔지니어</v>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E149" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F149" s="6">
         <v>425</v>
       </c>
       <c r="I149" s="2" t="s">
@@ -6731,12 +7170,10 @@
     <row r="150" spans="2:9">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>웹퍼블리셔</v>
-      </c>
-      <c r="F150" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E150" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F150" s="6">
         <v>332</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -6746,12 +7183,10 @@
     <row r="151" spans="2:9">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>IT컨설팅</v>
-      </c>
-      <c r="F151" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E151" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F151" s="6">
         <v>432</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -6761,12 +7196,10 @@
     <row r="152" spans="2:9">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>QA</v>
-      </c>
-      <c r="F152" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E152" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F152" s="6">
         <v>457</v>
       </c>
       <c r="I152" s="2" t="s">
@@ -6776,12 +7209,10 @@
     <row r="153" spans="2:9">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>AI/ML연구원</v>
-      </c>
-      <c r="F153" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E153" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F153" s="6">
         <v>71</v>
       </c>
       <c r="I153" s="2" t="s">
@@ -6791,12 +7222,10 @@
     <row r="154" spans="2:9">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>데이터분석가</v>
-      </c>
-      <c r="F154" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E154" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F154" s="6">
         <v>102</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -6806,12 +7235,10 @@
     <row r="155" spans="2:9">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>데이터라벨러</v>
-      </c>
-      <c r="F155" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E155" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F155" s="6">
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
@@ -6821,12 +7248,10 @@
     <row r="156" spans="2:9">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>프롬프트엔지니어</v>
-      </c>
-      <c r="F156" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E156" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F156" s="6">
         <v>15</v>
       </c>
       <c r="I156" s="2" t="s">
@@ -6836,12 +7261,10 @@
     <row r="157" spans="2:9">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>AI보안전문가</v>
-      </c>
-      <c r="F157" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E157" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F157" s="6">
         <v>18</v>
       </c>
       <c r="I157" s="2" t="s">
@@ -6851,12 +7274,10 @@
     <row r="158" spans="2:9">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>MLOps엔지니어</v>
-      </c>
-      <c r="F158" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E158" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F158" s="6">
         <v>21</v>
       </c>
       <c r="I158" s="2" t="s">
@@ -6866,12 +7287,10 @@
     <row r="159" spans="2:9">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>AI서비스개발자</v>
-      </c>
-      <c r="F159" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E159" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F159" s="6">
         <v>135</v>
       </c>
       <c r="I159" s="2" t="s">
@@ -6883,13 +7302,11 @@
       <c r="C160" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>물류관리자</v>
-      </c>
-      <c r="F160" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,829</v>
+      <c r="E160" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F160" s="8">
+        <v>3829</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>167</v>
@@ -6898,13 +7315,11 @@
     <row r="161" spans="2:9">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>구매관리자</v>
-      </c>
-      <c r="F161" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,560</v>
+      <c r="E161" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F161" s="8">
+        <v>1560</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>168</v>
@@ -6913,13 +7328,11 @@
     <row r="162" spans="2:9">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>자재관리자</v>
-      </c>
-      <c r="F162" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2,614</v>
+      <c r="E162" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F162" s="8">
+        <v>2614</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>169</v>
@@ -6928,13 +7341,11 @@
     <row r="163" spans="2:9">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>유통관리자</v>
-      </c>
-      <c r="F163" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,908</v>
+      <c r="E163" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F163" s="8">
+        <v>1908</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>170</v>
@@ -6943,13 +7354,11 @@
     <row r="164" spans="2:9">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>무역사무원</v>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,568</v>
+      <c r="E164" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F164" s="8">
+        <v>1568</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>171</v>
@@ -6960,13 +7369,11 @@
       <c r="C165" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>제품영업</v>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>5,734</v>
+      <c r="E165" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F165" s="8">
+        <v>5734</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>173</v>
@@ -6975,13 +7382,11 @@
     <row r="166" spans="2:9">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>서비스영업</v>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>2,589</v>
+      <c r="E166" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F166" s="8">
+        <v>2589</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>174</v>
@@ -6990,13 +7395,11 @@
     <row r="167" spans="2:9">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>해외영업</v>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,063</v>
+      <c r="E167" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F167" s="8">
+        <v>3063</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>175</v>
@@ -7005,12 +7408,10 @@
     <row r="168" spans="2:9">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>광고영업</v>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E168" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F168" s="6">
         <v>969</v>
       </c>
       <c r="I168" s="2" t="s">
@@ -7020,13 +7421,11 @@
     <row r="169" spans="2:9">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>금융영업</v>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,110</v>
+      <c r="E169" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F169" s="8">
+        <v>1110</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>177</v>
@@ -7035,13 +7434,11 @@
     <row r="170" spans="2:9">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>법인영업</v>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,880</v>
+      <c r="E170" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F170" s="8">
+        <v>1880</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>178</v>
@@ -7050,13 +7447,11 @@
     <row r="171" spans="2:9">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>IT·기술영업</v>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,000</v>
+      <c r="E171" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F171" s="8">
+        <v>3000</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>179</v>
@@ -7065,13 +7460,11 @@
     <row r="172" spans="2:9">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>영업관리</v>
-      </c>
-      <c r="F172" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>7,592</v>
+      <c r="E172" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="8">
+        <v>7592</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>180</v>
@@ -7080,13 +7473,11 @@
     <row r="173" spans="2:9">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>영업지원</v>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>4,697</v>
+      <c r="E173" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F173" s="8">
+        <v>4697</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>181</v>
@@ -7097,13 +7488,11 @@
       <c r="C174" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>금융사무</v>
-      </c>
-      <c r="F174" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,010</v>
+      <c r="E174" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F174" s="8">
+        <v>1010</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>183</v>
@@ -7112,12 +7501,10 @@
     <row r="175" spans="2:9">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>보험설계사</v>
-      </c>
-      <c r="F175" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E175" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F175" s="6">
         <v>910</v>
       </c>
       <c r="I175" s="2" t="s">
@@ -7127,12 +7514,10 @@
     <row r="176" spans="2:9">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>손해사정사</v>
-      </c>
-      <c r="F176" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E176" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F176" s="6">
         <v>265</v>
       </c>
       <c r="I176" s="2" t="s">
@@ -7142,12 +7527,10 @@
     <row r="177" spans="2:9">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>심사</v>
-      </c>
-      <c r="F177" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E177" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F177" s="6">
         <v>443</v>
       </c>
       <c r="I177" s="2" t="s">
@@ -7157,12 +7540,10 @@
     <row r="178" spans="2:9">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>은행원·텔러</v>
-      </c>
-      <c r="F178" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E178" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F178" s="6">
         <v>188</v>
       </c>
       <c r="I178" s="2" t="s">
@@ -7172,12 +7553,10 @@
     <row r="179" spans="2:9">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>계리사</v>
-      </c>
-      <c r="F179" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E179" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F179" s="6">
         <v>21</v>
       </c>
       <c r="I179" s="2" t="s">
@@ -7187,12 +7566,10 @@
     <row r="180" spans="2:9">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>펀드매니저</v>
-      </c>
-      <c r="F180" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E180" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F180" s="6">
         <v>133</v>
       </c>
       <c r="I180" s="2" t="s">
@@ -7202,12 +7579,10 @@
     <row r="181" spans="2:9">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>애널리스트</v>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E181" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F181" s="6">
         <v>141</v>
       </c>
       <c r="I181" s="2" t="s">
@@ -7219,13 +7594,11 @@
       <c r="C182" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>설치·수리기사</v>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,765</v>
+      <c r="E182" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F182" s="8">
+        <v>1765</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>192</v>
@@ -7234,13 +7607,11 @@
     <row r="183" spans="2:9">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>정비기사</v>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,199</v>
+      <c r="E183" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F183" s="8">
+        <v>1199</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>193</v>
@@ -7249,13 +7620,11 @@
     <row r="184" spans="2:9">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>호텔종사자</v>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,518</v>
+      <c r="E184" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F184" s="8">
+        <v>1518</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>194</v>
@@ -7264,12 +7633,10 @@
     <row r="185" spans="2:9">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>여행에이전트</v>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E185" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F185" s="6">
         <v>472</v>
       </c>
       <c r="I185" s="2" t="s">
@@ -7279,13 +7646,11 @@
     <row r="186" spans="2:9">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>매장관리자</v>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>4,728</v>
+      <c r="E186" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F186" s="8">
+        <v>4728</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>196</v>
@@ -7294,13 +7659,11 @@
     <row r="187" spans="2:9">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>뷰티·미용사</v>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,669</v>
+      <c r="E187" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F187" s="8">
+        <v>1669</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>197</v>
@@ -7309,12 +7672,10 @@
     <row r="188" spans="2:9">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>애견미용·훈련</v>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E188" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F188" s="6">
         <v>116</v>
       </c>
       <c r="I188" s="2" t="s">
@@ -7324,13 +7685,11 @@
     <row r="189" spans="2:9">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>안내데스크·리셉셔니스트</v>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,592</v>
+      <c r="E189" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F189" s="8">
+        <v>1592</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>199</v>
@@ -7339,12 +7698,10 @@
     <row r="190" spans="2:9">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>경호·경비</v>
-      </c>
-      <c r="F190" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E190" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F190" s="6">
         <v>850</v>
       </c>
       <c r="I190" s="2" t="s">
@@ -7354,13 +7711,11 @@
     <row r="191" spans="2:9">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="E191" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>운영보조·매니저</v>
-      </c>
-      <c r="F191" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,091</v>
+      <c r="E191" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F191" s="8">
+        <v>1091</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>201</v>
@@ -7369,12 +7724,10 @@
     <row r="192" spans="2:9">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="E192" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>이벤트·웨딩플래너</v>
-      </c>
-      <c r="F192" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E192" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F192" s="6">
         <v>372</v>
       </c>
       <c r="I192" s="2" t="s">
@@ -7384,12 +7737,10 @@
     <row r="193" spans="2:9">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="E193" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>주차·주유원</v>
-      </c>
-      <c r="F193" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E193" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F193" s="6">
         <v>244</v>
       </c>
       <c r="I193" s="2" t="s">
@@ -7399,12 +7750,10 @@
     <row r="194" spans="2:9">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="E194" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>스타일리스트</v>
-      </c>
-      <c r="F194" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E194" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F194" s="6">
         <v>590</v>
       </c>
       <c r="I194" s="2" t="s">
@@ -7414,12 +7763,10 @@
     <row r="195" spans="2:9">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="E195" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>장례지도사</v>
-      </c>
-      <c r="F195" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E195" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F195" s="6">
         <v>36</v>
       </c>
       <c r="I195" s="2" t="s">
@@ -7429,13 +7776,11 @@
     <row r="196" spans="2:9">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="E196" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>가사도우미</v>
-      </c>
-      <c r="F196" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,200</v>
+      <c r="E196" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" s="8">
+        <v>3200</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>206</v>
@@ -7444,12 +7789,10 @@
     <row r="197" spans="2:9">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="E197" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>승무원</v>
-      </c>
-      <c r="F197" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E197" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F197" s="6">
         <v>545</v>
       </c>
       <c r="I197" s="2" t="s">
@@ -7459,12 +7802,10 @@
     <row r="198" spans="2:9">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="E198" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>플로리스트</v>
-      </c>
-      <c r="F198" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E198" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F198" s="6">
         <v>36</v>
       </c>
       <c r="I198" s="2" t="s">
@@ -7476,13 +7817,11 @@
       <c r="C199" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E199" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>생산직종사자</v>
-      </c>
-      <c r="F199" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>17,208</v>
+      <c r="E199" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F199" s="8">
+        <v>17208</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>210</v>
@@ -7491,13 +7830,11 @@
     <row r="200" spans="2:9">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="E200" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>생산·공정관리자</v>
-      </c>
-      <c r="F200" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,777</v>
+      <c r="E200" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F200" s="8">
+        <v>3777</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>211</v>
@@ -7506,13 +7843,11 @@
     <row r="201" spans="2:9">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="E201" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>품질관리자</v>
-      </c>
-      <c r="F201" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>3,067</v>
+      <c r="E201" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F201" s="8">
+        <v>3067</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>212</v>
@@ -7521,13 +7856,11 @@
     <row r="202" spans="2:9">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-      <c r="E202" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>포장·가공담당자</v>
-      </c>
-      <c r="F202" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1,427</v>
+      <c r="E202" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F202" s="8">
+        <v>1427</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>213</v>
@@ -7536,12 +7869,10 @@
     <row r="203" spans="2:9">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
-      <c r="E203" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>공장관리자</v>
-      </c>
-      <c r="F203" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E203" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F203" s="6">
         <v>311</v>
       </c>
       <c r="I203" s="2" t="s">
@@ -7551,12 +7882,10 @@
     <row r="204" spans="2:9">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
-      <c r="E204" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>용접사</v>
-      </c>
-      <c r="F204" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E204" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F204" s="6">
         <v>215</v>
       </c>
       <c r="I204" s="2" t="s">
@@ -7568,12 +7897,10 @@
       <c r="C205" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E205" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>건축가</v>
-      </c>
-      <c r="F205" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="E205" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F205" s="6">
         <v>317</v>
       </c>
       <c r="I205" s="2" t="s">
@@ -7583,13 +7910,11 @@
     <row r="206" spans="2:9">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
-      <c r="E206" s="2" t="str">
-        <f t="shared" ref="E206:E224" si="10">LEFT(I206, FIND("(", I206) - 1)</f>
-        <v>건축기사</v>
-      </c>
-      <c r="F206" s="2" t="str">
-        <f t="shared" ref="F206:F224" si="11">MID(I206, FIND("(", I206)+1, FIND(")", I206)-FIND("(", I206)-1)</f>
-        <v>1,590</v>
+      <c r="E206" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F206" s="8">
+        <v>1590</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>218</v>
@@ -7598,13 +7923,11 @@
     <row r="207" spans="2:9">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
-      <c r="E207" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>시공기사</v>
-      </c>
-      <c r="F207" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1,263</v>
+      <c r="E207" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F207" s="8">
+        <v>1263</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>219</v>
@@ -7613,13 +7936,11 @@
     <row r="208" spans="2:9">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-      <c r="E208" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>전기기사</v>
-      </c>
-      <c r="F208" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1,199</v>
+      <c r="E208" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F208" s="8">
+        <v>1199</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>220</v>
@@ -7628,13 +7949,11 @@
     <row r="209" spans="2:9">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
-      <c r="E209" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>토목기사</v>
-      </c>
-      <c r="F209" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1,467</v>
+      <c r="E209" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F209" s="8">
+        <v>1467</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>221</v>
@@ -7643,13 +7962,11 @@
     <row r="210" spans="2:9">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
-      <c r="E210" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>시설관리자</v>
-      </c>
-      <c r="F210" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>2,671</v>
+      <c r="E210" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F210" s="8">
+        <v>2671</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>222</v>
@@ -7658,13 +7975,11 @@
     <row r="211" spans="2:9">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-      <c r="E211" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>현장관리자</v>
-      </c>
-      <c r="F211" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1,784</v>
+      <c r="E211" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F211" s="8">
+        <v>1784</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>223</v>
@@ -7673,13 +7988,11 @@
     <row r="212" spans="2:9">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="E212" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>안전관리자</v>
-      </c>
-      <c r="F212" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>1,284</v>
+      <c r="E212" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F212" s="8">
+        <v>1284</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>224</v>
@@ -7688,12 +8001,10 @@
     <row r="213" spans="2:9">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
-      <c r="E213" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>공무</v>
-      </c>
-      <c r="F213" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E213" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F213" s="6">
         <v>977</v>
       </c>
       <c r="I213" s="2" t="s">
@@ -7703,12 +8014,10 @@
     <row r="214" spans="2:9">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
-      <c r="E214" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>소방설비</v>
-      </c>
-      <c r="F214" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E214" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F214" s="6">
         <v>413</v>
       </c>
       <c r="I214" s="2" t="s">
@@ -7718,12 +8027,10 @@
     <row r="215" spans="2:9">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
-      <c r="E215" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>현장보조</v>
-      </c>
-      <c r="F215" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E215" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F215" s="6">
         <v>343</v>
       </c>
       <c r="I215" s="2" t="s">
@@ -7733,12 +8040,10 @@
     <row r="216" spans="2:9">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
-      <c r="E216" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>감리원</v>
-      </c>
-      <c r="F216" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E216" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F216" s="6">
         <v>167</v>
       </c>
       <c r="I216" s="2" t="s">
@@ -7748,12 +8053,10 @@
     <row r="217" spans="2:9">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
-      <c r="E217" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>도시·조경설계</v>
-      </c>
-      <c r="F217" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E217" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F217" s="6">
         <v>191</v>
       </c>
       <c r="I217" s="2" t="s">
@@ -7763,12 +8066,10 @@
     <row r="218" spans="2:9">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-      <c r="E218" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>환경기사</v>
-      </c>
-      <c r="F218" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E218" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F218" s="6">
         <v>341</v>
       </c>
       <c r="I218" s="2" t="s">
@@ -7778,12 +8079,10 @@
     <row r="219" spans="2:9">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-      <c r="E219" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>비파괴검사원</v>
-      </c>
-      <c r="F219" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E219" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F219" s="6">
         <v>43</v>
       </c>
       <c r="I219" s="2" t="s">
@@ -7793,12 +8092,10 @@
     <row r="220" spans="2:9">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-      <c r="E220" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>공인중개사</v>
-      </c>
-      <c r="F220" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E220" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F220" s="6">
         <v>772</v>
       </c>
       <c r="I220" s="2" t="s">
@@ -7808,12 +8105,10 @@
     <row r="221" spans="2:9">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
-      <c r="E221" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>감정평가사</v>
-      </c>
-      <c r="F221" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E221" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F221" s="6">
         <v>11</v>
       </c>
       <c r="I221" s="2" t="s">
@@ -7823,12 +8118,10 @@
     <row r="222" spans="2:9">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
-      <c r="E222" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>분양매니저</v>
-      </c>
-      <c r="F222" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E222" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F222" s="6">
         <v>400</v>
       </c>
       <c r="I222" s="2" t="s">
@@ -7840,12 +8133,10 @@
       <c r="C223" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E223" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>PD·감독</v>
-      </c>
-      <c r="F223" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E223" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F223" s="6">
         <v>681</v>
       </c>
       <c r="I223" s="2" t="s">
@@ -7855,12 +8146,10 @@
     <row r="224" spans="2:9">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
-      <c r="E224" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>포토그래퍼</v>
-      </c>
-      <c r="F224" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="E224" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F224" s="6">
         <v>545</v>
       </c>
       <c r="I224" s="2" t="s">
@@ -7870,12 +8159,10 @@
     <row r="225" spans="2:9">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
-      <c r="E225" s="2" t="str">
-        <f t="shared" ref="E225:E244" si="12">LEFT(I225, FIND("(", I225) - 1)</f>
-        <v>영상편집자</v>
-      </c>
-      <c r="F225" s="2" t="str">
-        <f t="shared" ref="F225:F244" si="13">MID(I225, FIND("(", I225)+1, FIND(")", I225)-FIND("(", I225)-1)</f>
+      <c r="E225" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F225" s="6">
         <v>984</v>
       </c>
       <c r="I225" s="2" t="s">
@@ -7885,12 +8172,10 @@
     <row r="226" spans="2:9">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
-      <c r="E226" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>사운드엔지니어</v>
-      </c>
-      <c r="F226" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E226" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F226" s="6">
         <v>91</v>
       </c>
       <c r="I226" s="2" t="s">
@@ -7900,12 +8185,10 @@
     <row r="227" spans="2:9">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
-      <c r="E227" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>스태프</v>
-      </c>
-      <c r="F227" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E227" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F227" s="6">
         <v>327</v>
       </c>
       <c r="I227" s="2" t="s">
@@ -7915,12 +8198,10 @@
     <row r="228" spans="2:9">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
-      <c r="E228" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>출판·편집</v>
-      </c>
-      <c r="F228" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E228" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F228" s="6">
         <v>276</v>
       </c>
       <c r="I228" s="2" t="s">
@@ -7930,12 +8211,10 @@
     <row r="229" spans="2:9">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
-      <c r="E229" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>배급·제작자</v>
-      </c>
-      <c r="F229" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E229" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F229" s="6">
         <v>395</v>
       </c>
       <c r="I229" s="2" t="s">
@@ -7945,12 +8224,10 @@
     <row r="230" spans="2:9">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
-      <c r="E230" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>콘텐츠에디터</v>
-      </c>
-      <c r="F230" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E230" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F230" s="6">
         <v>235</v>
       </c>
       <c r="I230" s="2" t="s">
@@ -7960,12 +8237,10 @@
     <row r="231" spans="2:9">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
-      <c r="E231" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>크리에이터</v>
-      </c>
-      <c r="F231" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E231" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F231" s="6">
         <v>277</v>
       </c>
       <c r="I231" s="2" t="s">
@@ -7975,12 +8250,10 @@
     <row r="232" spans="2:9">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
-      <c r="E232" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>기자</v>
-      </c>
-      <c r="F232" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E232" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F232" s="6">
         <v>211</v>
       </c>
       <c r="I232" s="2" t="s">
@@ -7990,12 +8263,10 @@
     <row r="233" spans="2:9">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
-      <c r="E233" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>작가</v>
-      </c>
-      <c r="F233" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E233" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F233" s="6">
         <v>175</v>
       </c>
       <c r="I233" s="2" t="s">
@@ -8005,12 +8276,10 @@
     <row r="234" spans="2:9">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
-      <c r="E234" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>아나운서</v>
-      </c>
-      <c r="F234" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E234" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F234" s="6">
         <v>34</v>
       </c>
       <c r="I234" s="2" t="s">
@@ -8020,12 +8289,10 @@
     <row r="235" spans="2:9">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
-      <c r="E235" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>리포터·성우</v>
-      </c>
-      <c r="F235" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E235" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F235" s="6">
         <v>34</v>
       </c>
       <c r="I235" s="2" t="s">
@@ -8035,12 +8302,10 @@
     <row r="236" spans="2:9">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="E236" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>MC·쇼호스트</v>
-      </c>
-      <c r="F236" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E236" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F236" s="6">
         <v>61</v>
       </c>
       <c r="I236" s="2" t="s">
@@ -8050,12 +8315,10 @@
     <row r="237" spans="2:9">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
-      <c r="E237" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>모델</v>
-      </c>
-      <c r="F237" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E237" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F237" s="6">
         <v>79</v>
       </c>
       <c r="I237" s="2" t="s">
@@ -8065,12 +8328,10 @@
     <row r="238" spans="2:9">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
-      <c r="E238" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>연예인·매니저</v>
-      </c>
-      <c r="F238" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="E238" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F238" s="6">
         <v>228</v>
       </c>
       <c r="I238" s="2" t="s">
@@ -8080,13 +8341,11 @@
     <row r="239" spans="2:9">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
-      <c r="E239" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>인플루언서</v>
-      </c>
-      <c r="F239" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>122</v>
+      <c r="E239" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F239" s="8">
+        <v>4013</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>252</v>
@@ -8095,13 +8354,11 @@
     <row r="240" spans="2:9">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
-      <c r="E240" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>통번역사</v>
-      </c>
-      <c r="F240" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>692</v>
+      <c r="E240" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F240" s="8">
+        <v>1789</v>
       </c>
       <c r="I240" s="2" t="s">
         <v>253</v>
@@ -8110,13 +8367,11 @@
     <row r="241" spans="2:9">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
-      <c r="E241" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>큐레이터</v>
-      </c>
-      <c r="F241" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>52</v>
+      <c r="E241" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F241" s="8">
+        <v>3363</v>
       </c>
       <c r="I241" s="2" t="s">
         <v>254</v>
@@ -8125,13 +8380,11 @@
     <row r="242" spans="2:9">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
-      <c r="E242" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>음반기획</v>
-      </c>
-      <c r="F242" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>86</v>
+      <c r="E242" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F242" s="8">
+        <v>1057</v>
       </c>
       <c r="I242" s="2" t="s">
         <v>255</v>
@@ -8140,13 +8393,11 @@
     <row r="243" spans="2:9">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
-      <c r="E243" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>스포츠강사</v>
-      </c>
-      <c r="F243" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>807</v>
+      <c r="E243" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F243" s="6">
+        <v>639</v>
       </c>
       <c r="I243" s="2" t="s">
         <v>256</v>
@@ -8155,46 +8406,34 @@
     <row r="244" spans="2:9">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
-      <c r="E244" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>AI콘텐츠크리에이터</v>
-      </c>
-      <c r="F244" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>31</v>
+      <c r="E244" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F244" s="6">
+        <v>93</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>257</v>
       </c>
     </row>
+    <row r="245" spans="2:9">
+      <c r="F245" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="F246" s="6">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C223:C244"/>
-    <mergeCell ref="B223:B244"/>
-    <mergeCell ref="C182:C198"/>
-    <mergeCell ref="B182:B198"/>
-    <mergeCell ref="C199:C204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B222"/>
-    <mergeCell ref="C205:C222"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="C165:C173"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="C125:C133"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="C134:C159"/>
-    <mergeCell ref="B134:B159"/>
-    <mergeCell ref="B82:B92"/>
-    <mergeCell ref="C82:C92"/>
-    <mergeCell ref="C93:C106"/>
-    <mergeCell ref="B93:B106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="C17:C29"/>
     <mergeCell ref="C57:C68"/>
     <mergeCell ref="B57:B68"/>
     <mergeCell ref="C69:C81"/>
@@ -8205,12 +8444,32 @@
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="C82:C92"/>
+    <mergeCell ref="C93:C106"/>
+    <mergeCell ref="B93:B106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C114:C124"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="C125:C133"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C134:C159"/>
+    <mergeCell ref="B134:B159"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="C165:C173"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C223:C244"/>
+    <mergeCell ref="B223:B244"/>
+    <mergeCell ref="C182:C198"/>
+    <mergeCell ref="B182:B198"/>
+    <mergeCell ref="C199:C204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B222"/>
+    <mergeCell ref="C205:C222"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/잡코리아 직무코드.xlsx
+++ b/잡코리아 직무코드.xlsx
@@ -4050,685 +4050,686 @@
     <t>브랜드마케터</t>
   </si>
   <si>
+    <t>CRM마케터</t>
+  </si>
+  <si>
+    <t>온라인마케터</t>
+  </si>
+  <si>
+    <t>콘텐츠마케터</t>
+  </si>
+  <si>
+    <t>홍보</t>
+  </si>
+  <si>
+    <t>설문·리서치</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>카피라이터</t>
+  </si>
+  <si>
+    <t>크리에이티브디렉터</t>
+  </si>
+  <si>
+    <t>채널관리자</t>
+  </si>
+  <si>
+    <t>그로스해커</t>
+  </si>
+  <si>
+    <t>그래픽디자이너</t>
+  </si>
+  <si>
+    <t>3D디자이너</t>
+  </si>
+  <si>
+    <t>제품디자이너</t>
+  </si>
+  <si>
+    <t>산업디자이너</t>
+  </si>
+  <si>
+    <t>광고디자이너</t>
+  </si>
+  <si>
+    <t>시각디자이너</t>
+  </si>
+  <si>
+    <t>영상디자이너</t>
+  </si>
+  <si>
+    <t>웹디자이너</t>
+  </si>
+  <si>
+    <t>UI·UX디자이너</t>
+  </si>
+  <si>
+    <t>패션디자이너</t>
+  </si>
+  <si>
+    <t>편집디자이너</t>
+  </si>
+  <si>
+    <t>실내디자이너</t>
+  </si>
+  <si>
+    <t>공간디자이너</t>
+  </si>
+  <si>
+    <t>캐릭터디자이너</t>
+  </si>
+  <si>
+    <t>환경디자이너</t>
+  </si>
+  <si>
+    <t>아트디렉터</t>
+  </si>
+  <si>
+    <t>일러스트레이터</t>
+  </si>
+  <si>
+    <t>납품·배송기사</t>
+  </si>
+  <si>
+    <t>배달기사</t>
+  </si>
+  <si>
+    <t>수행·운전기사</t>
+  </si>
+  <si>
+    <t>화물·중장비기사</t>
+  </si>
+  <si>
+    <t>버스기사</t>
+  </si>
+  <si>
+    <t>택시기사</t>
+  </si>
+  <si>
+    <t>조종·기관사</t>
+  </si>
+  <si>
+    <t>인바운드상담원</t>
+  </si>
+  <si>
+    <t>아웃바운드상담원</t>
+  </si>
+  <si>
+    <t>고객센터관리자</t>
+  </si>
+  <si>
+    <t>요리사</t>
+  </si>
+  <si>
+    <t>조리사</t>
+  </si>
+  <si>
+    <t>제과제빵사</t>
+  </si>
+  <si>
+    <t>바리스타</t>
+  </si>
+  <si>
+    <t>셰프·주방장</t>
+  </si>
+  <si>
+    <t>카페·레스토랑매니저</t>
+  </si>
+  <si>
+    <t>홀서버</t>
+  </si>
+  <si>
+    <t>주방보조</t>
+  </si>
+  <si>
+    <t>소믈리에·바텐더</t>
+  </si>
+  <si>
+    <t>영양사</t>
+  </si>
+  <si>
+    <t>식품연구원</t>
+  </si>
+  <si>
+    <t>푸드스타일리스트</t>
+  </si>
+  <si>
+    <t>전기·전자엔지니어</t>
+  </si>
+  <si>
+    <t>기계엔지니어</t>
+  </si>
+  <si>
+    <t>설계엔지니어</t>
+  </si>
+  <si>
+    <t>설비엔지니어</t>
+  </si>
+  <si>
+    <t>반도체엔지니어</t>
+  </si>
+  <si>
+    <t>화학엔지니어</t>
+  </si>
+  <si>
+    <t>공정엔지니어</t>
+  </si>
+  <si>
+    <t>하드웨어엔지니어</t>
+  </si>
+  <si>
+    <t>통신엔지니어</t>
+  </si>
+  <si>
+    <t>RF엔지니어</t>
+  </si>
+  <si>
+    <t>필드엔지니어</t>
+  </si>
+  <si>
+    <t>R&amp;D·연구원</t>
+  </si>
+  <si>
+    <t>AI로봇엔지니어</t>
+  </si>
+  <si>
+    <t>유치원·보육교사</t>
+  </si>
+  <si>
+    <t>학교·특수학교교사</t>
+  </si>
+  <si>
+    <t>대학교수·강사</t>
+  </si>
+  <si>
+    <t>학원강사</t>
+  </si>
+  <si>
+    <t>외국어강사</t>
+  </si>
+  <si>
+    <t>기술·전문강사</t>
+  </si>
+  <si>
+    <t>학습지·방문교사</t>
+  </si>
+  <si>
+    <t>학원상담·운영</t>
+  </si>
+  <si>
+    <t>교직원·조교</t>
+  </si>
+  <si>
+    <t>교재개발·교수설계</t>
+  </si>
+  <si>
+    <t>AI교육컨설턴트</t>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>한의사</t>
+  </si>
+  <si>
+    <t>간호사</t>
+  </si>
+  <si>
+    <t>간호조무사</t>
+  </si>
+  <si>
+    <t>약사·한약사</t>
+  </si>
+  <si>
+    <t>의료기사</t>
+  </si>
+  <si>
+    <t>수의사</t>
+  </si>
+  <si>
+    <t>수의테크니션</t>
+  </si>
+  <si>
+    <t>병원코디네이터</t>
+  </si>
+  <si>
+    <t>원무행정</t>
+  </si>
+  <si>
+    <t>기타의료종사자</t>
+  </si>
+  <si>
+    <t>의료·약무보조</t>
+  </si>
+  <si>
+    <t>바이오·제약연구원</t>
+  </si>
+  <si>
+    <t>임상연구원</t>
+  </si>
+  <si>
+    <t>사회복지사</t>
+  </si>
+  <si>
+    <t>요양보호사</t>
+  </si>
+  <si>
+    <t>환경미화원</t>
+  </si>
+  <si>
+    <t>보건관리자</t>
+  </si>
+  <si>
+    <t>사서</t>
+  </si>
+  <si>
+    <t>자원봉사자</t>
+  </si>
+  <si>
+    <t>방역·방재기사</t>
+  </si>
+  <si>
+    <t>경영지원</t>
+  </si>
+  <si>
+    <t>사무담당자</t>
+  </si>
+  <si>
+    <t>총무</t>
+  </si>
+  <si>
+    <t>사무보조</t>
+  </si>
+  <si>
+    <t>법무담당자</t>
+  </si>
+  <si>
+    <t>비서</t>
+  </si>
+  <si>
+    <t>변호사</t>
+  </si>
+  <si>
+    <t>법무사</t>
+  </si>
+  <si>
+    <t>변리사</t>
+  </si>
+  <si>
+    <t>노무사</t>
+  </si>
+  <si>
+    <t>AI윤리전문가</t>
+  </si>
+  <si>
+    <t>회계담당자</t>
+  </si>
+  <si>
+    <t>경리</t>
+  </si>
+  <si>
+    <t>세무담당자</t>
+  </si>
+  <si>
+    <t>재무담당자</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
+    <t>IR·공시</t>
+  </si>
+  <si>
+    <t>회계사</t>
+  </si>
+  <si>
+    <t>세무사</t>
+  </si>
+  <si>
+    <t>관세사</t>
+  </si>
+  <si>
+    <t>백엔드개발자</t>
+  </si>
+  <si>
+    <t>프론트엔드개발자</t>
+  </si>
+  <si>
+    <t>웹개발자</t>
+  </si>
+  <si>
+    <t>앱개발자</t>
+  </si>
+  <si>
+    <t>시스템엔지니어</t>
+  </si>
+  <si>
+    <t>네트워크엔지니어</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>데이터엔지니어</t>
+  </si>
+  <si>
+    <t>데이터사이언티스트</t>
+  </si>
+  <si>
+    <t>보안엔지니어</t>
+  </si>
+  <si>
+    <t>소프트웨어개발자</t>
+  </si>
+  <si>
+    <t>게임개발자</t>
+  </si>
+  <si>
+    <t>하드웨어개발자</t>
+  </si>
+  <si>
+    <t>AI/ML엔지니어</t>
+  </si>
+  <si>
+    <t>블록체인개발자</t>
+  </si>
+  <si>
+    <t>클라우드엔지니어</t>
+  </si>
+  <si>
+    <t>웹퍼블리셔</t>
+  </si>
+  <si>
+    <t>IT컨설팅</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>AI/ML연구원</t>
+  </si>
+  <si>
+    <t>데이터분석가</t>
+  </si>
+  <si>
+    <t>데이터라벨러</t>
+  </si>
+  <si>
+    <t>프롬프트엔지니어</t>
+  </si>
+  <si>
+    <t>AI보안전문가</t>
+  </si>
+  <si>
+    <t>MLOps엔지니어</t>
+  </si>
+  <si>
+    <t>AI서비스개발자</t>
+  </si>
+  <si>
+    <t>물류관리자</t>
+  </si>
+  <si>
+    <t>구매관리자</t>
+  </si>
+  <si>
+    <t>자재관리자</t>
+  </si>
+  <si>
+    <t>유통관리자</t>
+  </si>
+  <si>
+    <t>무역사무원</t>
+  </si>
+  <si>
+    <t>제품영업</t>
+  </si>
+  <si>
+    <t>서비스영업</t>
+  </si>
+  <si>
+    <t>해외영업</t>
+  </si>
+  <si>
+    <t>광고영업</t>
+  </si>
+  <si>
+    <t>금융영업</t>
+  </si>
+  <si>
+    <t>법인영업</t>
+  </si>
+  <si>
+    <t>IT·기술영업</t>
+  </si>
+  <si>
+    <t>영업관리</t>
+  </si>
+  <si>
+    <t>영업지원</t>
+  </si>
+  <si>
+    <t>금융사무</t>
+  </si>
+  <si>
+    <t>보험설계사</t>
+  </si>
+  <si>
+    <t>손해사정사</t>
+  </si>
+  <si>
+    <t>심사</t>
+  </si>
+  <si>
+    <t>은행원·텔러</t>
+  </si>
+  <si>
+    <t>계리사</t>
+  </si>
+  <si>
+    <t>펀드매니저</t>
+  </si>
+  <si>
+    <t>애널리스트</t>
+  </si>
+  <si>
+    <t>설치·수리기사</t>
+  </si>
+  <si>
+    <t>정비기사</t>
+  </si>
+  <si>
+    <t>호텔종사자</t>
+  </si>
+  <si>
+    <t>여행에이전트</t>
+  </si>
+  <si>
+    <t>매장관리자</t>
+  </si>
+  <si>
+    <t>뷰티·미용사</t>
+  </si>
+  <si>
+    <t>애견미용·훈련</t>
+  </si>
+  <si>
+    <t>안내데스크·리셉셔니스트</t>
+  </si>
+  <si>
+    <t>경호·경비</t>
+  </si>
+  <si>
+    <t>운영보조·매니저</t>
+  </si>
+  <si>
+    <t>이벤트·웨딩플래너</t>
+  </si>
+  <si>
+    <t>주차·주유원</t>
+  </si>
+  <si>
+    <t>스타일리스트</t>
+  </si>
+  <si>
+    <t>장례지도사</t>
+  </si>
+  <si>
+    <t>가사도우미</t>
+  </si>
+  <si>
+    <t>승무원</t>
+  </si>
+  <si>
+    <t>플로리스트</t>
+  </si>
+  <si>
+    <t>생산직종사자</t>
+  </si>
+  <si>
+    <t>생산·공정관리자</t>
+  </si>
+  <si>
+    <t>품질관리자</t>
+  </si>
+  <si>
+    <t>포장·가공담당자</t>
+  </si>
+  <si>
+    <t>공장관리자</t>
+  </si>
+  <si>
+    <t>용접사</t>
+  </si>
+  <si>
+    <t>건축가</t>
+  </si>
+  <si>
+    <t>건축기사</t>
+  </si>
+  <si>
+    <t>시공기사</t>
+  </si>
+  <si>
+    <t>전기기사</t>
+  </si>
+  <si>
+    <t>토목기사</t>
+  </si>
+  <si>
+    <t>시설관리자</t>
+  </si>
+  <si>
+    <t>현장관리자</t>
+  </si>
+  <si>
+    <t>안전관리자</t>
+  </si>
+  <si>
+    <t>공무</t>
+  </si>
+  <si>
+    <t>소방설비</t>
+  </si>
+  <si>
+    <t>현장보조</t>
+  </si>
+  <si>
+    <t>감리원</t>
+  </si>
+  <si>
+    <t>도시·조경설계</t>
+  </si>
+  <si>
+    <t>환경기사</t>
+  </si>
+  <si>
+    <t>비파괴검사원</t>
+  </si>
+  <si>
+    <t>공인중개사</t>
+  </si>
+  <si>
+    <t>감정평가사</t>
+  </si>
+  <si>
+    <t>분양매니저</t>
+  </si>
+  <si>
+    <t>PD·감독</t>
+  </si>
+  <si>
+    <t>포토그래퍼</t>
+  </si>
+  <si>
+    <t>영상편집자</t>
+  </si>
+  <si>
+    <t>사운드엔지니어</t>
+  </si>
+  <si>
+    <t>스태프</t>
+  </si>
+  <si>
+    <t>출판·편집</t>
+  </si>
+  <si>
+    <t>배급·제작자</t>
+  </si>
+  <si>
+    <t>콘텐츠에디터</t>
+  </si>
+  <si>
+    <t>크리에이터</t>
+  </si>
+  <si>
+    <t>기자</t>
+  </si>
+  <si>
+    <t>작가</t>
+  </si>
+  <si>
+    <t>아나운서</t>
+  </si>
+  <si>
+    <t>리포터·성우</t>
+  </si>
+  <si>
+    <t>MC·쇼호스트</t>
+  </si>
+  <si>
+    <t>모델</t>
+  </si>
+  <si>
+    <t>연예인·매니저</t>
+  </si>
+  <si>
+    <t>인플루언서</t>
+  </si>
+  <si>
+    <t>통번역사</t>
+  </si>
+  <si>
+    <t>큐레이터</t>
+  </si>
+  <si>
+    <t>음반기획</t>
+  </si>
+  <si>
+    <t>스포츠강사</t>
+  </si>
+  <si>
+    <t>AI콘텐츠크리에이터</t>
+  </si>
+  <si>
+    <t>AE(광고기획자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>퍼포먼스마케터</t>
-  </si>
-  <si>
-    <t>CRM마케터</t>
-  </si>
-  <si>
-    <t>온라인마케터</t>
-  </si>
-  <si>
-    <t>콘텐츠마케터</t>
-  </si>
-  <si>
-    <t>홍보</t>
-  </si>
-  <si>
-    <t>설문·리서치</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>카피라이터</t>
-  </si>
-  <si>
-    <t>크리에이티브디렉터</t>
-  </si>
-  <si>
-    <t>채널관리자</t>
-  </si>
-  <si>
-    <t>그로스해커</t>
-  </si>
-  <si>
-    <t>그래픽디자이너</t>
-  </si>
-  <si>
-    <t>3D디자이너</t>
-  </si>
-  <si>
-    <t>제품디자이너</t>
-  </si>
-  <si>
-    <t>산업디자이너</t>
-  </si>
-  <si>
-    <t>광고디자이너</t>
-  </si>
-  <si>
-    <t>시각디자이너</t>
-  </si>
-  <si>
-    <t>영상디자이너</t>
-  </si>
-  <si>
-    <t>웹디자이너</t>
-  </si>
-  <si>
-    <t>UI·UX디자이너</t>
-  </si>
-  <si>
-    <t>패션디자이너</t>
-  </si>
-  <si>
-    <t>편집디자이너</t>
-  </si>
-  <si>
-    <t>실내디자이너</t>
-  </si>
-  <si>
-    <t>공간디자이너</t>
-  </si>
-  <si>
-    <t>캐릭터디자이너</t>
-  </si>
-  <si>
-    <t>환경디자이너</t>
-  </si>
-  <si>
-    <t>아트디렉터</t>
-  </si>
-  <si>
-    <t>일러스트레이터</t>
-  </si>
-  <si>
-    <t>납품·배송기사</t>
-  </si>
-  <si>
-    <t>배달기사</t>
-  </si>
-  <si>
-    <t>수행·운전기사</t>
-  </si>
-  <si>
-    <t>화물·중장비기사</t>
-  </si>
-  <si>
-    <t>버스기사</t>
-  </si>
-  <si>
-    <t>택시기사</t>
-  </si>
-  <si>
-    <t>조종·기관사</t>
-  </si>
-  <si>
-    <t>인바운드상담원</t>
-  </si>
-  <si>
-    <t>아웃바운드상담원</t>
-  </si>
-  <si>
-    <t>고객센터관리자</t>
-  </si>
-  <si>
-    <t>요리사</t>
-  </si>
-  <si>
-    <t>조리사</t>
-  </si>
-  <si>
-    <t>제과제빵사</t>
-  </si>
-  <si>
-    <t>바리스타</t>
-  </si>
-  <si>
-    <t>셰프·주방장</t>
-  </si>
-  <si>
-    <t>카페·레스토랑매니저</t>
-  </si>
-  <si>
-    <t>홀서버</t>
-  </si>
-  <si>
-    <t>주방보조</t>
-  </si>
-  <si>
-    <t>소믈리에·바텐더</t>
-  </si>
-  <si>
-    <t>영양사</t>
-  </si>
-  <si>
-    <t>식품연구원</t>
-  </si>
-  <si>
-    <t>푸드스타일리스트</t>
-  </si>
-  <si>
-    <t>전기·전자엔지니어</t>
-  </si>
-  <si>
-    <t>기계엔지니어</t>
-  </si>
-  <si>
-    <t>설계엔지니어</t>
-  </si>
-  <si>
-    <t>설비엔지니어</t>
-  </si>
-  <si>
-    <t>반도체엔지니어</t>
-  </si>
-  <si>
-    <t>화학엔지니어</t>
-  </si>
-  <si>
-    <t>공정엔지니어</t>
-  </si>
-  <si>
-    <t>하드웨어엔지니어</t>
-  </si>
-  <si>
-    <t>통신엔지니어</t>
-  </si>
-  <si>
-    <t>RF엔지니어</t>
-  </si>
-  <si>
-    <t>필드엔지니어</t>
-  </si>
-  <si>
-    <t>R&amp;D·연구원</t>
-  </si>
-  <si>
-    <t>AI로봇엔지니어</t>
-  </si>
-  <si>
-    <t>유치원·보육교사</t>
-  </si>
-  <si>
-    <t>학교·특수학교교사</t>
-  </si>
-  <si>
-    <t>대학교수·강사</t>
-  </si>
-  <si>
-    <t>학원강사</t>
-  </si>
-  <si>
-    <t>외국어강사</t>
-  </si>
-  <si>
-    <t>기술·전문강사</t>
-  </si>
-  <si>
-    <t>학습지·방문교사</t>
-  </si>
-  <si>
-    <t>학원상담·운영</t>
-  </si>
-  <si>
-    <t>교직원·조교</t>
-  </si>
-  <si>
-    <t>교재개발·교수설계</t>
-  </si>
-  <si>
-    <t>AI교육컨설턴트</t>
-  </si>
-  <si>
-    <t>의사</t>
-  </si>
-  <si>
-    <t>한의사</t>
-  </si>
-  <si>
-    <t>간호사</t>
-  </si>
-  <si>
-    <t>간호조무사</t>
-  </si>
-  <si>
-    <t>약사·한약사</t>
-  </si>
-  <si>
-    <t>의료기사</t>
-  </si>
-  <si>
-    <t>수의사</t>
-  </si>
-  <si>
-    <t>수의테크니션</t>
-  </si>
-  <si>
-    <t>병원코디네이터</t>
-  </si>
-  <si>
-    <t>원무행정</t>
-  </si>
-  <si>
-    <t>기타의료종사자</t>
-  </si>
-  <si>
-    <t>의료·약무보조</t>
-  </si>
-  <si>
-    <t>바이오·제약연구원</t>
-  </si>
-  <si>
-    <t>임상연구원</t>
-  </si>
-  <si>
-    <t>사회복지사</t>
-  </si>
-  <si>
-    <t>요양보호사</t>
-  </si>
-  <si>
-    <t>환경미화원</t>
-  </si>
-  <si>
-    <t>보건관리자</t>
-  </si>
-  <si>
-    <t>사서</t>
-  </si>
-  <si>
-    <t>자원봉사자</t>
-  </si>
-  <si>
-    <t>방역·방재기사</t>
-  </si>
-  <si>
-    <t>경영지원</t>
-  </si>
-  <si>
-    <t>사무담당자</t>
-  </si>
-  <si>
-    <t>총무</t>
-  </si>
-  <si>
-    <t>사무보조</t>
-  </si>
-  <si>
-    <t>법무담당자</t>
-  </si>
-  <si>
-    <t>비서</t>
-  </si>
-  <si>
-    <t>변호사</t>
-  </si>
-  <si>
-    <t>법무사</t>
-  </si>
-  <si>
-    <t>변리사</t>
-  </si>
-  <si>
-    <t>노무사</t>
-  </si>
-  <si>
-    <t>AI윤리전문가</t>
-  </si>
-  <si>
-    <t>회계담당자</t>
-  </si>
-  <si>
-    <t>경리</t>
-  </si>
-  <si>
-    <t>세무담당자</t>
-  </si>
-  <si>
-    <t>재무담당자</t>
-  </si>
-  <si>
-    <t>감사</t>
-  </si>
-  <si>
-    <t>IR·공시</t>
-  </si>
-  <si>
-    <t>회계사</t>
-  </si>
-  <si>
-    <t>세무사</t>
-  </si>
-  <si>
-    <t>관세사</t>
-  </si>
-  <si>
-    <t>백엔드개발자</t>
-  </si>
-  <si>
-    <t>프론트엔드개발자</t>
-  </si>
-  <si>
-    <t>웹개발자</t>
-  </si>
-  <si>
-    <t>앱개발자</t>
-  </si>
-  <si>
-    <t>시스템엔지니어</t>
-  </si>
-  <si>
-    <t>네트워크엔지니어</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>데이터엔지니어</t>
-  </si>
-  <si>
-    <t>데이터사이언티스트</t>
-  </si>
-  <si>
-    <t>보안엔지니어</t>
-  </si>
-  <si>
-    <t>소프트웨어개발자</t>
-  </si>
-  <si>
-    <t>게임개발자</t>
-  </si>
-  <si>
-    <t>하드웨어개발자</t>
-  </si>
-  <si>
-    <t>AI/ML엔지니어</t>
-  </si>
-  <si>
-    <t>블록체인개발자</t>
-  </si>
-  <si>
-    <t>클라우드엔지니어</t>
-  </si>
-  <si>
-    <t>웹퍼블리셔</t>
-  </si>
-  <si>
-    <t>IT컨설팅</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>AI/ML연구원</t>
-  </si>
-  <si>
-    <t>데이터분석가</t>
-  </si>
-  <si>
-    <t>데이터라벨러</t>
-  </si>
-  <si>
-    <t>프롬프트엔지니어</t>
-  </si>
-  <si>
-    <t>AI보안전문가</t>
-  </si>
-  <si>
-    <t>MLOps엔지니어</t>
-  </si>
-  <si>
-    <t>AI서비스개발자</t>
-  </si>
-  <si>
-    <t>물류관리자</t>
-  </si>
-  <si>
-    <t>구매관리자</t>
-  </si>
-  <si>
-    <t>자재관리자</t>
-  </si>
-  <si>
-    <t>유통관리자</t>
-  </si>
-  <si>
-    <t>무역사무원</t>
-  </si>
-  <si>
-    <t>제품영업</t>
-  </si>
-  <si>
-    <t>서비스영업</t>
-  </si>
-  <si>
-    <t>해외영업</t>
-  </si>
-  <si>
-    <t>광고영업</t>
-  </si>
-  <si>
-    <t>금융영업</t>
-  </si>
-  <si>
-    <t>법인영업</t>
-  </si>
-  <si>
-    <t>IT·기술영업</t>
-  </si>
-  <si>
-    <t>영업관리</t>
-  </si>
-  <si>
-    <t>영업지원</t>
-  </si>
-  <si>
-    <t>금융사무</t>
-  </si>
-  <si>
-    <t>보험설계사</t>
-  </si>
-  <si>
-    <t>손해사정사</t>
-  </si>
-  <si>
-    <t>심사</t>
-  </si>
-  <si>
-    <t>은행원·텔러</t>
-  </si>
-  <si>
-    <t>계리사</t>
-  </si>
-  <si>
-    <t>펀드매니저</t>
-  </si>
-  <si>
-    <t>애널리스트</t>
-  </si>
-  <si>
-    <t>설치·수리기사</t>
-  </si>
-  <si>
-    <t>정비기사</t>
-  </si>
-  <si>
-    <t>호텔종사자</t>
-  </si>
-  <si>
-    <t>여행에이전트</t>
-  </si>
-  <si>
-    <t>매장관리자</t>
-  </si>
-  <si>
-    <t>뷰티·미용사</t>
-  </si>
-  <si>
-    <t>애견미용·훈련</t>
-  </si>
-  <si>
-    <t>안내데스크·리셉셔니스트</t>
-  </si>
-  <si>
-    <t>경호·경비</t>
-  </si>
-  <si>
-    <t>운영보조·매니저</t>
-  </si>
-  <si>
-    <t>이벤트·웨딩플래너</t>
-  </si>
-  <si>
-    <t>주차·주유원</t>
-  </si>
-  <si>
-    <t>스타일리스트</t>
-  </si>
-  <si>
-    <t>장례지도사</t>
-  </si>
-  <si>
-    <t>가사도우미</t>
-  </si>
-  <si>
-    <t>승무원</t>
-  </si>
-  <si>
-    <t>플로리스트</t>
-  </si>
-  <si>
-    <t>생산직종사자</t>
-  </si>
-  <si>
-    <t>생산·공정관리자</t>
-  </si>
-  <si>
-    <t>품질관리자</t>
-  </si>
-  <si>
-    <t>포장·가공담당자</t>
-  </si>
-  <si>
-    <t>공장관리자</t>
-  </si>
-  <si>
-    <t>용접사</t>
-  </si>
-  <si>
-    <t>건축가</t>
-  </si>
-  <si>
-    <t>건축기사</t>
-  </si>
-  <si>
-    <t>시공기사</t>
-  </si>
-  <si>
-    <t>전기기사</t>
-  </si>
-  <si>
-    <t>토목기사</t>
-  </si>
-  <si>
-    <t>시설관리자</t>
-  </si>
-  <si>
-    <t>현장관리자</t>
-  </si>
-  <si>
-    <t>안전관리자</t>
-  </si>
-  <si>
-    <t>공무</t>
-  </si>
-  <si>
-    <t>소방설비</t>
-  </si>
-  <si>
-    <t>현장보조</t>
-  </si>
-  <si>
-    <t>감리원</t>
-  </si>
-  <si>
-    <t>도시·조경설계</t>
-  </si>
-  <si>
-    <t>환경기사</t>
-  </si>
-  <si>
-    <t>비파괴검사원</t>
-  </si>
-  <si>
-    <t>공인중개사</t>
-  </si>
-  <si>
-    <t>감정평가사</t>
-  </si>
-  <si>
-    <t>분양매니저</t>
-  </si>
-  <si>
-    <t>PD·감독</t>
-  </si>
-  <si>
-    <t>포토그래퍼</t>
-  </si>
-  <si>
-    <t>영상편집자</t>
-  </si>
-  <si>
-    <t>사운드엔지니어</t>
-  </si>
-  <si>
-    <t>스태프</t>
-  </si>
-  <si>
-    <t>출판·편집</t>
-  </si>
-  <si>
-    <t>배급·제작자</t>
-  </si>
-  <si>
-    <t>콘텐츠에디터</t>
-  </si>
-  <si>
-    <t>크리에이터</t>
-  </si>
-  <si>
-    <t>기자</t>
-  </si>
-  <si>
-    <t>작가</t>
-  </si>
-  <si>
-    <t>아나운서</t>
-  </si>
-  <si>
-    <t>리포터·성우</t>
-  </si>
-  <si>
-    <t>MC·쇼호스트</t>
-  </si>
-  <si>
-    <t>모델</t>
-  </si>
-  <si>
-    <t>연예인·매니저</t>
-  </si>
-  <si>
-    <t>인플루언서</t>
-  </si>
-  <si>
-    <t>통번역사</t>
-  </si>
-  <si>
-    <t>큐레이터</t>
-  </si>
-  <si>
-    <t>음반기획</t>
-  </si>
-  <si>
-    <t>스포츠강사</t>
-  </si>
-  <si>
-    <t>AI콘텐츠크리에이터</t>
-  </si>
-  <si>
-    <t>AE(광고기획자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5108,7 +5109,7 @@
   <dimension ref="B2:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5384,7 +5385,7 @@
         <v>1000216</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7">
         <v>1432</v>
@@ -5416,7 +5417,7 @@
         <v>1000218</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="F19" s="8">
         <v>1821</v>
@@ -5432,7 +5433,7 @@
         <v>1000219</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="6">
         <v>709</v>
@@ -5448,7 +5449,7 @@
         <v>1000220</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="8">
         <v>4852</v>
@@ -5464,7 +5465,7 @@
         <v>1000221</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F22" s="8">
         <v>2364</v>
@@ -5480,7 +5481,7 @@
         <v>1000222</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F23" s="8">
         <v>2030</v>
@@ -5496,7 +5497,7 @@
         <v>1000223</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F24" s="6">
         <v>311</v>
@@ -5512,7 +5513,7 @@
         <v>1000224</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F25" s="8">
         <v>3990</v>
@@ -5528,7 +5529,7 @@
         <v>1000225</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F26" s="6">
         <v>79</v>
@@ -5544,7 +5545,7 @@
         <v>1000226</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F27" s="6">
         <v>112</v>
@@ -5560,7 +5561,7 @@
         <v>1000227</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F28" s="8">
         <v>1233</v>
@@ -5576,7 +5577,7 @@
         <v>1000228</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F29" s="6">
         <v>28</v>
@@ -5591,7 +5592,7 @@
         <v>261</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" s="8">
         <v>1457</v>
@@ -5604,7 +5605,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F31" s="6">
         <v>646</v>
@@ -5617,7 +5618,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F32" s="6">
         <v>805</v>
@@ -5630,7 +5631,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F33" s="6">
         <v>281</v>
@@ -5643,7 +5644,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F34" s="8">
         <v>1003</v>
@@ -5656,7 +5657,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F35" s="8">
         <v>1407</v>
@@ -5669,7 +5670,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F36" s="6">
         <v>623</v>
@@ -5682,7 +5683,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F37" s="8">
         <v>1984</v>
@@ -5695,7 +5696,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F38" s="8">
         <v>1158</v>
@@ -5708,7 +5709,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F39" s="6">
         <v>941</v>
@@ -5721,7 +5722,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F40" s="6">
         <v>652</v>
@@ -5734,7 +5735,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F41" s="6">
         <v>919</v>
@@ -5747,7 +5748,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F42" s="6">
         <v>772</v>
@@ -5760,7 +5761,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F43" s="6">
         <v>460</v>
@@ -5773,7 +5774,7 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F44" s="6">
         <v>86</v>
@@ -5786,7 +5787,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="E45" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F45" s="6">
         <v>103</v>
@@ -5799,7 +5800,7 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F46" s="6">
         <v>297</v>
@@ -5814,7 +5815,7 @@
         <v>262</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F47" s="8">
         <v>2274</v>
@@ -5827,7 +5828,7 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="E48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F48" s="6">
         <v>611</v>
@@ -5840,7 +5841,7 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="E49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F49" s="8">
         <v>1218</v>
@@ -5853,7 +5854,7 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="E50" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F50" s="8">
         <v>1582</v>
@@ -5866,7 +5867,7 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="E51" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F51" s="6">
         <v>193</v>
@@ -5879,7 +5880,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="E52" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F52" s="6">
         <v>63</v>
@@ -5892,7 +5893,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="E53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="6">
         <v>53</v>
@@ -5907,7 +5908,7 @@
         <v>56</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F54" s="8">
         <v>5364</v>
@@ -5920,7 +5921,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F55" s="8">
         <v>3311</v>
@@ -5933,7 +5934,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="E56" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F56" s="8">
         <v>1377</v>
@@ -5948,7 +5949,7 @@
         <v>263</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F57" s="8">
         <v>3512</v>
@@ -5961,7 +5962,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="E58" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F58" s="8">
         <v>3033</v>
@@ -5974,7 +5975,7 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="E59" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F59" s="8">
         <v>1653</v>
@@ -5987,7 +5988,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="E60" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F60" s="8">
         <v>1905</v>
@@ -6000,7 +6001,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="E61" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F61" s="8">
         <v>1652</v>
@@ -6013,7 +6014,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="E62" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62" s="8">
         <v>2335</v>
@@ -6026,7 +6027,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="E63" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="8">
         <v>3001</v>
@@ -6039,7 +6040,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="E64" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F64" s="8">
         <v>2640</v>
@@ -6052,7 +6053,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="E65" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F65" s="6">
         <v>323</v>
@@ -6065,7 +6066,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="E66" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F66" s="6">
         <v>196</v>
@@ -6078,7 +6079,7 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="E67" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F67" s="6">
         <v>244</v>
@@ -6091,7 +6092,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="E68" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F68" s="6">
         <v>56</v>
@@ -6106,7 +6107,7 @@
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F69" s="8">
         <v>2243</v>
@@ -6119,7 +6120,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="E70" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F70" s="8">
         <v>2551</v>
@@ -6132,7 +6133,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="E71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F71" s="8">
         <v>3062</v>
@@ -6145,7 +6146,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="E72" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F72" s="6">
         <v>807</v>
@@ -6158,7 +6159,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="E73" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F73" s="8">
         <v>1125</v>
@@ -6171,7 +6172,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="E74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F74" s="6">
         <v>594</v>
@@ -6184,7 +6185,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="E75" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F75" s="6">
         <v>772</v>
@@ -6197,7 +6198,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="E76" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F76" s="6">
         <v>608</v>
@@ -6210,7 +6211,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="E77" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F77" s="6">
         <v>418</v>
@@ -6223,7 +6224,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="E78" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F78" s="6">
         <v>100</v>
@@ -6236,7 +6237,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="E79" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F79" s="6">
         <v>708</v>
@@ -6249,7 +6250,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="E80" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F80" s="8">
         <v>2520</v>
@@ -6262,7 +6263,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="E81" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F81" s="6">
         <v>27</v>
@@ -6277,7 +6278,7 @@
         <v>265</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F82" s="8">
         <v>1140</v>
@@ -6290,7 +6291,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="E83" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F83" s="6">
         <v>596</v>
@@ -6303,7 +6304,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="E84" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F84" s="6">
         <v>59</v>
@@ -6316,7 +6317,7 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="E85" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F85" s="8">
         <v>2369</v>
@@ -6329,7 +6330,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="E86" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F86" s="8">
         <v>1107</v>
@@ -6342,7 +6343,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="E87" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F87" s="6">
         <v>823</v>
@@ -6355,7 +6356,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="E88" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F88" s="6">
         <v>583</v>
@@ -6368,7 +6369,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="E89" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F89" s="8">
         <v>1497</v>
@@ -6381,7 +6382,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="E90" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F90" s="6">
         <v>475</v>
@@ -6394,7 +6395,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="E91" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F91" s="6">
         <v>662</v>
@@ -6407,7 +6408,7 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="E92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F92" s="6">
         <v>29</v>
@@ -6422,7 +6423,7 @@
         <v>266</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F93" s="6">
         <v>56</v>
@@ -6435,7 +6436,7 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="E94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F94" s="6">
         <v>4</v>
@@ -6448,7 +6449,7 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="E95" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F95" s="8">
         <v>1065</v>
@@ -6461,7 +6462,7 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="E96" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F96" s="8">
         <v>2634</v>
@@ -6474,7 +6475,7 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="E97" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F97" s="6">
         <v>139</v>
@@ -6487,7 +6488,7 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="E98" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F98" s="6">
         <v>771</v>
@@ -6500,7 +6501,7 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="E99" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F99" s="6">
         <v>14</v>
@@ -6513,7 +6514,7 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="E100" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F100" s="6">
         <v>129</v>
@@ -6526,7 +6527,7 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="E101" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F101" s="8">
         <v>1429</v>
@@ -6539,7 +6540,7 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="E102" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F102" s="6">
         <v>771</v>
@@ -6552,7 +6553,7 @@
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="E103" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F103" s="8">
         <v>16046</v>
@@ -6565,7 +6566,7 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="E104" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F104" s="6">
         <v>181</v>
@@ -6578,7 +6579,7 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="E105" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F105" s="8">
         <v>1529</v>
@@ -6591,7 +6592,7 @@
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="E106" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F106" s="6">
         <v>179</v>
@@ -6606,7 +6607,7 @@
         <v>267</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F107" s="8">
         <v>4050</v>
@@ -6619,7 +6620,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="E108" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F108" s="6">
         <v>126</v>
@@ -6632,7 +6633,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="E109" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F109" s="6">
         <v>518</v>
@@ -6645,7 +6646,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="E110" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F110" s="6">
         <v>109</v>
@@ -6658,7 +6659,7 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="E111" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" s="6">
         <v>34</v>
@@ -6671,7 +6672,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="E112" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F112" s="6">
         <v>5</v>
@@ -6684,7 +6685,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="E113" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F113" s="6">
         <v>109</v>
@@ -6699,7 +6700,7 @@
         <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" s="8">
         <v>2033</v>
@@ -6712,7 +6713,7 @@
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F115" s="8">
         <v>5969</v>
@@ -6725,7 +6726,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F116" s="8">
         <v>2325</v>
@@ -6738,7 +6739,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="E117" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F117" s="8">
         <v>4401</v>
@@ -6751,7 +6752,7 @@
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="E118" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F118" s="6">
         <v>685</v>
@@ -6764,7 +6765,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="E119" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F119" s="6">
         <v>766</v>
@@ -6777,7 +6778,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="E120" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F120" s="6">
         <v>248</v>
@@ -6790,7 +6791,7 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="E121" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F121" s="6">
         <v>65</v>
@@ -6803,7 +6804,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="E122" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F122" s="6">
         <v>92</v>
@@ -6816,7 +6817,7 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="E123" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F123" s="6">
         <v>90</v>
@@ -6829,7 +6830,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="E124" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F124" s="6">
         <v>1</v>
@@ -6844,7 +6845,7 @@
         <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F125" s="8">
         <v>5788</v>
@@ -6857,7 +6858,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="E126" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F126" s="8">
         <v>1956</v>
@@ -6870,7 +6871,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="E127" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F127" s="8">
         <v>1200</v>
@@ -6883,7 +6884,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="E128" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" s="8">
         <v>1757</v>
@@ -6896,7 +6897,7 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="E129" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F129" s="6">
         <v>234</v>
@@ -6909,7 +6910,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="E130" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F130" s="6">
         <v>304</v>
@@ -6922,7 +6923,7 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="E131" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F131" s="6">
         <v>177</v>
@@ -6935,7 +6936,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="E132" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F132" s="6">
         <v>125</v>
@@ -6948,7 +6949,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="E133" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F133" s="6">
         <v>56</v>
@@ -6963,7 +6964,7 @@
         <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F134" s="8">
         <v>1789</v>
@@ -6976,7 +6977,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="E135" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F135" s="8">
         <v>1272</v>
@@ -6989,7 +6990,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="E136" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F136" s="8">
         <v>1895</v>
@@ -7002,7 +7003,7 @@
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="E137" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F137" s="6">
         <v>801</v>
@@ -7015,7 +7016,7 @@
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="E138" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F138" s="8">
         <v>2161</v>
@@ -7028,7 +7029,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="E139" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F139" s="8">
         <v>1077</v>
@@ -7041,7 +7042,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="E140" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F140" s="6">
         <v>363</v>
@@ -7054,7 +7055,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="E141" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F141" s="6">
         <v>479</v>
@@ -7067,7 +7068,7 @@
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="E142" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F142" s="6">
         <v>353</v>
@@ -7080,7 +7081,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="E143" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F143" s="6">
         <v>928</v>
@@ -7093,7 +7094,7 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="E144" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F144" s="8">
         <v>2255</v>
@@ -7106,7 +7107,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="E145" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F145" s="6">
         <v>882</v>
@@ -7119,7 +7120,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="E146" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F146" s="6">
         <v>594</v>
@@ -7132,7 +7133,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="E147" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F147" s="6">
         <v>577</v>
@@ -7145,7 +7146,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="E148" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F148" s="6">
         <v>31</v>
@@ -7158,7 +7159,7 @@
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="E149" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F149" s="6">
         <v>425</v>
@@ -7171,7 +7172,7 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="E150" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F150" s="6">
         <v>332</v>
@@ -7184,7 +7185,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="E151" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F151" s="6">
         <v>432</v>
@@ -7197,7 +7198,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="E152" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F152" s="6">
         <v>457</v>
@@ -7210,7 +7211,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="E153" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F153" s="6">
         <v>71</v>
@@ -7223,7 +7224,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="E154" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F154" s="6">
         <v>102</v>
@@ -7236,7 +7237,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="E155" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F155" s="6">
         <v>20</v>
@@ -7249,7 +7250,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="E156" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F156" s="6">
         <v>15</v>
@@ -7262,7 +7263,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="E157" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F157" s="6">
         <v>18</v>
@@ -7275,7 +7276,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="E158" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F158" s="6">
         <v>21</v>
@@ -7288,7 +7289,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="E159" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F159" s="6">
         <v>135</v>
@@ -7303,7 +7304,7 @@
         <v>166</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F160" s="8">
         <v>3829</v>
@@ -7316,7 +7317,7 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="E161" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F161" s="8">
         <v>1560</v>
@@ -7329,7 +7330,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="E162" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F162" s="8">
         <v>2614</v>
@@ -7342,7 +7343,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="E163" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F163" s="8">
         <v>1908</v>
@@ -7355,7 +7356,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="E164" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F164" s="8">
         <v>1568</v>
@@ -7370,7 +7371,7 @@
         <v>172</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F165" s="8">
         <v>5734</v>
@@ -7383,7 +7384,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="E166" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F166" s="8">
         <v>2589</v>
@@ -7396,7 +7397,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="E167" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F167" s="8">
         <v>3063</v>
@@ -7409,7 +7410,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="E168" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F168" s="6">
         <v>969</v>
@@ -7422,7 +7423,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="E169" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F169" s="8">
         <v>1110</v>
@@ -7435,7 +7436,7 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="E170" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F170" s="8">
         <v>1880</v>
@@ -7448,7 +7449,7 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="E171" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F171" s="8">
         <v>3000</v>
@@ -7461,7 +7462,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="E172" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F172" s="8">
         <v>7592</v>
@@ -7474,7 +7475,7 @@
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="E173" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F173" s="8">
         <v>4697</v>
@@ -7489,7 +7490,7 @@
         <v>182</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F174" s="8">
         <v>1010</v>
@@ -7502,7 +7503,7 @@
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="E175" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F175" s="6">
         <v>910</v>
@@ -7515,7 +7516,7 @@
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="E176" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F176" s="6">
         <v>265</v>
@@ -7528,7 +7529,7 @@
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="E177" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F177" s="6">
         <v>443</v>
@@ -7541,7 +7542,7 @@
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="E178" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F178" s="6">
         <v>188</v>
@@ -7554,7 +7555,7 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="E179" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F179" s="6">
         <v>21</v>
@@ -7567,7 +7568,7 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="E180" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F180" s="6">
         <v>133</v>
@@ -7580,7 +7581,7 @@
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="E181" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F181" s="6">
         <v>141</v>
@@ -7595,7 +7596,7 @@
         <v>191</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F182" s="8">
         <v>1765</v>
@@ -7608,7 +7609,7 @@
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="E183" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F183" s="8">
         <v>1199</v>
@@ -7621,7 +7622,7 @@
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="E184" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F184" s="8">
         <v>1518</v>
@@ -7634,7 +7635,7 @@
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="E185" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F185" s="6">
         <v>472</v>
@@ -7647,7 +7648,7 @@
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="E186" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F186" s="8">
         <v>4728</v>
@@ -7660,7 +7661,7 @@
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="E187" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F187" s="8">
         <v>1669</v>
@@ -7673,7 +7674,7 @@
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="E188" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F188" s="6">
         <v>116</v>
@@ -7686,7 +7687,7 @@
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="E189" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F189" s="8">
         <v>1592</v>
@@ -7699,7 +7700,7 @@
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="E190" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F190" s="6">
         <v>850</v>
@@ -7712,7 +7713,7 @@
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="E191" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F191" s="8">
         <v>1091</v>
@@ -7725,7 +7726,7 @@
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="E192" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F192" s="6">
         <v>372</v>
@@ -7738,7 +7739,7 @@
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="E193" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F193" s="6">
         <v>244</v>
@@ -7751,7 +7752,7 @@
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="E194" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F194" s="6">
         <v>590</v>
@@ -7764,7 +7765,7 @@
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="E195" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F195" s="6">
         <v>36</v>
@@ -7777,7 +7778,7 @@
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="E196" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F196" s="8">
         <v>3200</v>
@@ -7790,7 +7791,7 @@
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="E197" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F197" s="6">
         <v>545</v>
@@ -7803,7 +7804,7 @@
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="E198" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F198" s="6">
         <v>36</v>
@@ -7818,7 +7819,7 @@
         <v>209</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F199" s="8">
         <v>17208</v>
@@ -7831,7 +7832,7 @@
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="E200" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F200" s="8">
         <v>3777</v>
@@ -7844,7 +7845,7 @@
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="E201" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F201" s="8">
         <v>3067</v>
@@ -7857,7 +7858,7 @@
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="E202" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F202" s="8">
         <v>1427</v>
@@ -7870,7 +7871,7 @@
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="E203" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F203" s="6">
         <v>311</v>
@@ -7883,7 +7884,7 @@
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="E204" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F204" s="6">
         <v>215</v>
@@ -7898,7 +7899,7 @@
         <v>216</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F205" s="6">
         <v>317</v>
@@ -7911,7 +7912,7 @@
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="E206" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F206" s="8">
         <v>1590</v>
@@ -7924,7 +7925,7 @@
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="E207" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F207" s="8">
         <v>1263</v>
@@ -7937,7 +7938,7 @@
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="E208" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F208" s="8">
         <v>1199</v>
@@ -7950,7 +7951,7 @@
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="E209" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F209" s="8">
         <v>1467</v>
@@ -7963,7 +7964,7 @@
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="E210" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F210" s="8">
         <v>2671</v>
@@ -7976,7 +7977,7 @@
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="E211" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F211" s="8">
         <v>1784</v>
@@ -7989,7 +7990,7 @@
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="E212" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F212" s="8">
         <v>1284</v>
@@ -8002,7 +8003,7 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="E213" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F213" s="6">
         <v>977</v>
@@ -8015,7 +8016,7 @@
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="E214" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F214" s="6">
         <v>413</v>
@@ -8028,7 +8029,7 @@
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="E215" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F215" s="6">
         <v>343</v>
@@ -8041,7 +8042,7 @@
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="E216" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F216" s="6">
         <v>167</v>
@@ -8054,7 +8055,7 @@
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="E217" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F217" s="6">
         <v>191</v>
@@ -8067,7 +8068,7 @@
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="E218" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F218" s="6">
         <v>341</v>
@@ -8080,7 +8081,7 @@
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="E219" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F219" s="6">
         <v>43</v>
@@ -8093,7 +8094,7 @@
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="E220" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F220" s="6">
         <v>772</v>
@@ -8106,7 +8107,7 @@
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="E221" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F221" s="6">
         <v>11</v>
@@ -8119,7 +8120,7 @@
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="E222" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F222" s="6">
         <v>400</v>
@@ -8134,7 +8135,7 @@
         <v>235</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F223" s="6">
         <v>681</v>
@@ -8147,7 +8148,7 @@
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="E224" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F224" s="6">
         <v>545</v>
@@ -8160,7 +8161,7 @@
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="E225" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F225" s="6">
         <v>984</v>
@@ -8173,7 +8174,7 @@
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="E226" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F226" s="6">
         <v>91</v>
@@ -8186,7 +8187,7 @@
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="E227" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F227" s="6">
         <v>327</v>
@@ -8199,7 +8200,7 @@
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="E228" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F228" s="6">
         <v>276</v>
@@ -8212,7 +8213,7 @@
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="E229" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F229" s="6">
         <v>395</v>
@@ -8225,7 +8226,7 @@
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="E230" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F230" s="6">
         <v>235</v>
@@ -8238,7 +8239,7 @@
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="E231" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F231" s="6">
         <v>277</v>
@@ -8251,7 +8252,7 @@
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="E232" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F232" s="6">
         <v>211</v>
@@ -8264,7 +8265,7 @@
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="E233" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F233" s="6">
         <v>175</v>
@@ -8277,7 +8278,7 @@
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="E234" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F234" s="6">
         <v>34</v>
@@ -8290,7 +8291,7 @@
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="E235" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F235" s="6">
         <v>34</v>
@@ -8303,7 +8304,7 @@
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="E236" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F236" s="6">
         <v>61</v>
@@ -8316,7 +8317,7 @@
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="E237" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F237" s="6">
         <v>79</v>
@@ -8329,7 +8330,7 @@
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="E238" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F238" s="6">
         <v>228</v>
@@ -8342,7 +8343,7 @@
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="E239" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F239" s="8">
         <v>4013</v>
@@ -8355,7 +8356,7 @@
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="E240" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F240" s="8">
         <v>1789</v>
@@ -8368,7 +8369,7 @@
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="E241" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F241" s="8">
         <v>3363</v>
@@ -8381,7 +8382,7 @@
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="E242" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F242" s="8">
         <v>1057</v>
@@ -8394,7 +8395,7 @@
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="E243" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F243" s="6">
         <v>639</v>
@@ -8407,7 +8408,7 @@
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="E244" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F244" s="6">
         <v>93</v>

--- a/잡코리아 직무코드.xlsx
+++ b/잡코리아 직무코드.xlsx
@@ -4819,12 +4819,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5108,8 +5108,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5143,10 +5143,10 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>10026</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>258</v>
       </c>
       <c r="D3" s="1">
@@ -5155,7 +5155,7 @@
       <c r="E3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>4012</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -5163,15 +5163,15 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2">
         <v>1000186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1788</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5179,15 +5179,15 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1">
         <v>1000187</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>3362</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -5195,15 +5195,15 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2">
         <v>1000188</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1056</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -5211,15 +5211,15 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1">
         <v>1000189</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>639</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -5227,15 +5227,15 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2">
         <v>1000190</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -5243,15 +5243,15 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2">
         <v>1000414</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -5259,15 +5259,15 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2">
         <v>1000415</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -5275,10 +5275,10 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>10028</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>259</v>
       </c>
       <c r="D11" s="2">
@@ -5287,7 +5287,7 @@
       <c r="E11" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>2251</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -5295,15 +5295,15 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2">
         <v>1000202</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1512</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -5311,15 +5311,15 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2">
         <v>1000203</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>388</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -5327,15 +5327,15 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2">
         <v>1000204</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>303</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -5343,15 +5343,15 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2">
         <v>1000205</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>398</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -5359,15 +5359,15 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2">
         <v>1000206</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>194</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -5375,10 +5375,10 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>10030</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>260</v>
       </c>
       <c r="D17" s="2">
@@ -5387,7 +5387,7 @@
       <c r="E17" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>1432</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -5395,15 +5395,15 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2">
         <v>1000217</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>2431</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -5411,15 +5411,15 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2">
         <v>1000218</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>1821</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -5427,15 +5427,15 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2">
         <v>1000219</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>709</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -5443,15 +5443,15 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2">
         <v>1000220</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>4852</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -5459,15 +5459,15 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2">
         <v>1000221</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>2364</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -5475,15 +5475,15 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2">
         <v>1000222</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>2030</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -5491,15 +5491,15 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2">
         <v>1000223</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>311</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -5507,15 +5507,15 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2">
         <v>1000224</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>3990</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -5523,15 +5523,15 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2">
         <v>1000225</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>79</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -5539,15 +5539,15 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2">
         <v>1000226</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>112</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -5555,15 +5555,15 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2">
         <v>1000227</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>1233</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -5571,15 +5571,15 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2">
         <v>1000228</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -5587,14 +5587,17 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
         <v>261</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000248</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>1457</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -5602,12 +5605,15 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2">
+        <v>1000249</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>646</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -5615,12 +5621,15 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2">
+        <v>1000250</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>805</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -5628,12 +5637,15 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2">
+        <v>1000251</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>281</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -5641,12 +5653,15 @@
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2">
+        <v>1000252</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>1003</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -5654,12 +5669,15 @@
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2">
+        <v>1000253</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>1407</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -5667,12 +5685,15 @@
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="2">
+        <v>1000254</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>623</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5680,12 +5701,15 @@
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2">
+        <v>1000255</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>1984</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -5693,12 +5717,15 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2">
+        <v>1000256</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>1158</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -5706,12 +5733,15 @@
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2">
+        <v>1000257</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>941</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -5719,12 +5749,15 @@
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2">
+        <v>1000258</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>652</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -5732,12 +5765,15 @@
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="2">
+        <v>1000259</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>919</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -5745,12 +5781,15 @@
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2">
+        <v>1000260</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>772</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -5758,12 +5797,15 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2">
+        <v>1000261</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>460</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -5771,12 +5813,15 @@
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2">
+        <v>1000262</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>86</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -5784,12 +5829,15 @@
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2">
+        <v>1000263</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>103</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -5797,12 +5845,15 @@
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2">
+        <v>1000264</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>297</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -5810,14 +5861,14 @@
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
         <v>262</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <v>2274</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -5825,12 +5876,12 @@
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="E48" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>611</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -5838,12 +5889,12 @@
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="E49" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>1218</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -5851,12 +5902,12 @@
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="E50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>1582</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -5864,12 +5915,12 @@
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="E51" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>193</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -5877,12 +5928,12 @@
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="E52" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>63</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -5890,12 +5941,12 @@
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="E53" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>53</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -5903,14 +5954,14 @@
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>5364</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -5918,12 +5969,12 @@
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="E55" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>3311</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -5931,12 +5982,12 @@
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="E56" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>1377</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -5944,14 +5995,14 @@
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
         <v>263</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>3512</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -5959,12 +6010,12 @@
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="E58" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>3033</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -5972,12 +6023,12 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="E59" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <v>1653</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -5985,12 +6036,12 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="E60" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <v>1905</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -5998,12 +6049,12 @@
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="E61" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="7">
         <v>1652</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -6011,12 +6062,12 @@
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="E62" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="7">
         <v>2335</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -6024,12 +6075,12 @@
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="E63" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <v>3001</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -6037,12 +6088,12 @@
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="E64" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>2640</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -6050,12 +6101,12 @@
       </c>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="E65" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>323</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -6063,12 +6114,12 @@
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
       <c r="E66" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>196</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -6076,12 +6127,12 @@
       </c>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="E67" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>244</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -6089,12 +6140,12 @@
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
       <c r="E68" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>56</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -6102,14 +6153,14 @@
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8" t="s">
         <v>264</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <v>2243</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -6117,12 +6168,12 @@
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="E70" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <v>2551</v>
       </c>
       <c r="I70" s="2" t="s">
@@ -6130,12 +6181,12 @@
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
       <c r="E71" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <v>3062</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -6143,12 +6194,12 @@
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
       <c r="E72" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>807</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -6156,12 +6207,12 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="E73" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="7">
         <v>1125</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -6169,12 +6220,12 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
       <c r="E74" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>594</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -6182,12 +6233,12 @@
       </c>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="E75" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>772</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -6195,12 +6246,12 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="E76" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>608</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -6208,12 +6259,12 @@
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="E77" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>418</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -6221,12 +6272,12 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
       <c r="E78" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>100</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -6234,12 +6285,12 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
       <c r="E79" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>708</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -6247,12 +6298,12 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
       <c r="E80" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <v>2520</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -6260,12 +6311,12 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
       <c r="E81" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>27</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -6273,14 +6324,14 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>265</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="7">
         <v>1140</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -6288,12 +6339,12 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
       <c r="E83" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>596</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -6301,12 +6352,12 @@
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
       <c r="E84" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>59</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -6314,12 +6365,12 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
       <c r="E85" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <v>2369</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -6327,12 +6378,12 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
       <c r="E86" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>1107</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -6340,12 +6391,12 @@
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
       <c r="E87" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>823</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -6353,12 +6404,12 @@
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
       <c r="E88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>583</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -6366,12 +6417,12 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
       <c r="E89" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <v>1497</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -6379,12 +6430,12 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
       <c r="E90" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>475</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -6392,12 +6443,12 @@
       </c>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
       <c r="E91" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>662</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -6405,12 +6456,12 @@
       </c>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
       <c r="E92" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>29</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -6418,14 +6469,14 @@
       </c>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>56</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -6433,12 +6484,12 @@
       </c>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
       <c r="E94" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
@@ -6446,12 +6497,12 @@
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
       <c r="E95" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="7">
         <v>1065</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -6459,12 +6510,12 @@
       </c>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
       <c r="E96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>2634</v>
       </c>
       <c r="I96" s="2" t="s">
@@ -6472,12 +6523,12 @@
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
       <c r="E97" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>139</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -6485,12 +6536,12 @@
       </c>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
       <c r="E98" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>771</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -6498,12 +6549,12 @@
       </c>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
       <c r="E99" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>14</v>
       </c>
       <c r="I99" s="2" t="s">
@@ -6511,12 +6562,12 @@
       </c>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
       <c r="E100" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>129</v>
       </c>
       <c r="I100" s="2" t="s">
@@ -6524,12 +6575,12 @@
       </c>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
       <c r="E101" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="7">
         <v>1429</v>
       </c>
       <c r="I101" s="2" t="s">
@@ -6537,12 +6588,12 @@
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
       <c r="E102" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <v>771</v>
       </c>
       <c r="I102" s="2" t="s">
@@ -6550,12 +6601,12 @@
       </c>
     </row>
     <row r="103" spans="2:9">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
       <c r="E103" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F103" s="8">
+      <c r="F103" s="7">
         <v>16046</v>
       </c>
       <c r="I103" s="2" t="s">
@@ -6563,12 +6614,12 @@
       </c>
     </row>
     <row r="104" spans="2:9">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
       <c r="E104" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>181</v>
       </c>
       <c r="I104" s="2" t="s">
@@ -6576,12 +6627,12 @@
       </c>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
       <c r="E105" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F105" s="7">
         <v>1529</v>
       </c>
       <c r="I105" s="2" t="s">
@@ -6589,12 +6640,12 @@
       </c>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
       <c r="E106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>179</v>
       </c>
       <c r="I106" s="2" t="s">
@@ -6602,14 +6653,14 @@
       </c>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="8" t="s">
         <v>267</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="7">
         <v>4050</v>
       </c>
       <c r="I107" s="2" t="s">
@@ -6617,12 +6668,12 @@
       </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
       <c r="E108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <v>126</v>
       </c>
       <c r="I108" s="2" t="s">
@@ -6630,12 +6681,12 @@
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
       <c r="E109" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <v>518</v>
       </c>
       <c r="I109" s="2" t="s">
@@ -6643,12 +6694,12 @@
       </c>
     </row>
     <row r="110" spans="2:9">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
       <c r="E110" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <v>109</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -6656,12 +6707,12 @@
       </c>
     </row>
     <row r="111" spans="2:9">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
       <c r="E111" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>34</v>
       </c>
       <c r="I111" s="2" t="s">
@@ -6669,12 +6720,12 @@
       </c>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
       <c r="E112" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>5</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -6682,12 +6733,12 @@
       </c>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
       <c r="E113" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="5">
         <v>109</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -6695,14 +6746,14 @@
       </c>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="7">
         <v>2033</v>
       </c>
       <c r="I114" s="2" t="s">
@@ -6710,12 +6761,12 @@
       </c>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
       <c r="E115" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F115" s="7">
         <v>5969</v>
       </c>
       <c r="I115" s="2" t="s">
@@ -6723,12 +6774,12 @@
       </c>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
       <c r="E116" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="7">
         <v>2325</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -6736,12 +6787,12 @@
       </c>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
       <c r="E117" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F117" s="7">
         <v>4401</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -6749,12 +6800,12 @@
       </c>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
       <c r="E118" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>685</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -6762,12 +6813,12 @@
       </c>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
       <c r="E119" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="5">
         <v>766</v>
       </c>
       <c r="I119" s="2" t="s">
@@ -6775,12 +6826,12 @@
       </c>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
       <c r="E120" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>248</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -6788,12 +6839,12 @@
       </c>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
       <c r="E121" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>65</v>
       </c>
       <c r="I121" s="2" t="s">
@@ -6801,12 +6852,12 @@
       </c>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
       <c r="E122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>92</v>
       </c>
       <c r="I122" s="2" t="s">
@@ -6814,12 +6865,12 @@
       </c>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
       <c r="E123" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>90</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -6827,12 +6878,12 @@
       </c>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
       <c r="E124" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="5">
         <v>1</v>
       </c>
       <c r="I124" s="2" t="s">
@@ -6840,14 +6891,14 @@
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="5"/>
-      <c r="C125" s="5" t="s">
+      <c r="B125" s="8"/>
+      <c r="C125" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F125" s="8">
+      <c r="F125" s="7">
         <v>5788</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -6855,12 +6906,12 @@
       </c>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
       <c r="E126" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F126" s="8">
+      <c r="F126" s="7">
         <v>1956</v>
       </c>
       <c r="I126" s="2" t="s">
@@ -6868,12 +6919,12 @@
       </c>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
       <c r="E127" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F127" s="8">
+      <c r="F127" s="7">
         <v>1200</v>
       </c>
       <c r="I127" s="2" t="s">
@@ -6881,12 +6932,12 @@
       </c>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
       <c r="E128" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F128" s="8">
+      <c r="F128" s="7">
         <v>1757</v>
       </c>
       <c r="I128" s="2" t="s">
@@ -6894,12 +6945,12 @@
       </c>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
       <c r="E129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="5">
         <v>234</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -6907,12 +6958,12 @@
       </c>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
       <c r="E130" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="5">
         <v>304</v>
       </c>
       <c r="I130" s="2" t="s">
@@ -6920,12 +6971,12 @@
       </c>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
       <c r="E131" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="5">
         <v>177</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -6933,12 +6984,12 @@
       </c>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
       <c r="E132" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="5">
         <v>125</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -6946,12 +6997,12 @@
       </c>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
       <c r="E133" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="5">
         <v>56</v>
       </c>
       <c r="I133" s="2" t="s">
@@ -6959,14 +7010,14 @@
       </c>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="5"/>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="8"/>
+      <c r="C134" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F134" s="7">
         <v>1789</v>
       </c>
       <c r="I134" s="2" t="s">
@@ -6974,12 +7025,12 @@
       </c>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
       <c r="E135" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F135" s="8">
+      <c r="F135" s="7">
         <v>1272</v>
       </c>
       <c r="I135" s="2" t="s">
@@ -6987,12 +7038,12 @@
       </c>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
       <c r="E136" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F136" s="7">
         <v>1895</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -7000,12 +7051,12 @@
       </c>
     </row>
     <row r="137" spans="2:9">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
       <c r="E137" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="5">
         <v>801</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -7013,12 +7064,12 @@
       </c>
     </row>
     <row r="138" spans="2:9">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
       <c r="E138" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F138" s="8">
+      <c r="F138" s="7">
         <v>2161</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -7026,12 +7077,12 @@
       </c>
     </row>
     <row r="139" spans="2:9">
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
       <c r="E139" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F139" s="8">
+      <c r="F139" s="7">
         <v>1077</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -7039,12 +7090,12 @@
       </c>
     </row>
     <row r="140" spans="2:9">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
       <c r="E140" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="5">
         <v>363</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -7052,12 +7103,12 @@
       </c>
     </row>
     <row r="141" spans="2:9">
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
       <c r="E141" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141" s="5">
         <v>479</v>
       </c>
       <c r="I141" s="2" t="s">
@@ -7065,12 +7116,12 @@
       </c>
     </row>
     <row r="142" spans="2:9">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
       <c r="E142" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142" s="5">
         <v>353</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -7078,12 +7129,12 @@
       </c>
     </row>
     <row r="143" spans="2:9">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
       <c r="E143" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="5">
         <v>928</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -7091,12 +7142,12 @@
       </c>
     </row>
     <row r="144" spans="2:9">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
       <c r="E144" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F144" s="8">
+      <c r="F144" s="7">
         <v>2255</v>
       </c>
       <c r="I144" s="2" t="s">
@@ -7104,12 +7155,12 @@
       </c>
     </row>
     <row r="145" spans="2:9">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
       <c r="E145" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="5">
         <v>882</v>
       </c>
       <c r="I145" s="2" t="s">
@@ -7117,12 +7168,12 @@
       </c>
     </row>
     <row r="146" spans="2:9">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
       <c r="E146" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="5">
         <v>594</v>
       </c>
       <c r="I146" s="2" t="s">
@@ -7130,12 +7181,12 @@
       </c>
     </row>
     <row r="147" spans="2:9">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
       <c r="E147" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="5">
         <v>577</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -7143,12 +7194,12 @@
       </c>
     </row>
     <row r="148" spans="2:9">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
       <c r="E148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="5">
         <v>31</v>
       </c>
       <c r="I148" s="2" t="s">
@@ -7156,12 +7207,12 @@
       </c>
     </row>
     <row r="149" spans="2:9">
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
       <c r="E149" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="5">
         <v>425</v>
       </c>
       <c r="I149" s="2" t="s">
@@ -7169,12 +7220,12 @@
       </c>
     </row>
     <row r="150" spans="2:9">
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
       <c r="E150" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="5">
         <v>332</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -7182,12 +7233,12 @@
       </c>
     </row>
     <row r="151" spans="2:9">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
       <c r="E151" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="5">
         <v>432</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -7195,12 +7246,12 @@
       </c>
     </row>
     <row r="152" spans="2:9">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
       <c r="E152" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="5">
         <v>457</v>
       </c>
       <c r="I152" s="2" t="s">
@@ -7208,12 +7259,12 @@
       </c>
     </row>
     <row r="153" spans="2:9">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
       <c r="E153" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="5">
         <v>71</v>
       </c>
       <c r="I153" s="2" t="s">
@@ -7221,12 +7272,12 @@
       </c>
     </row>
     <row r="154" spans="2:9">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
       <c r="E154" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="5">
         <v>102</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -7234,12 +7285,12 @@
       </c>
     </row>
     <row r="155" spans="2:9">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
       <c r="E155" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="5">
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
@@ -7247,12 +7298,12 @@
       </c>
     </row>
     <row r="156" spans="2:9">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
       <c r="E156" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="5">
         <v>15</v>
       </c>
       <c r="I156" s="2" t="s">
@@ -7260,12 +7311,12 @@
       </c>
     </row>
     <row r="157" spans="2:9">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
       <c r="E157" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="5">
         <v>18</v>
       </c>
       <c r="I157" s="2" t="s">
@@ -7273,12 +7324,12 @@
       </c>
     </row>
     <row r="158" spans="2:9">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
       <c r="E158" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="5">
         <v>21</v>
       </c>
       <c r="I158" s="2" t="s">
@@ -7286,12 +7337,12 @@
       </c>
     </row>
     <row r="159" spans="2:9">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
       <c r="E159" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="5">
         <v>135</v>
       </c>
       <c r="I159" s="2" t="s">
@@ -7299,14 +7350,14 @@
       </c>
     </row>
     <row r="160" spans="2:9">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5" t="s">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F160" s="8">
+      <c r="F160" s="7">
         <v>3829</v>
       </c>
       <c r="I160" s="2" t="s">
@@ -7314,12 +7365,12 @@
       </c>
     </row>
     <row r="161" spans="2:9">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
       <c r="E161" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F161" s="8">
+      <c r="F161" s="7">
         <v>1560</v>
       </c>
       <c r="I161" s="2" t="s">
@@ -7327,12 +7378,12 @@
       </c>
     </row>
     <row r="162" spans="2:9">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
       <c r="E162" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F162" s="8">
+      <c r="F162" s="7">
         <v>2614</v>
       </c>
       <c r="I162" s="2" t="s">
@@ -7340,12 +7391,12 @@
       </c>
     </row>
     <row r="163" spans="2:9">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
       <c r="E163" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F163" s="8">
+      <c r="F163" s="7">
         <v>1908</v>
       </c>
       <c r="I163" s="2" t="s">
@@ -7353,12 +7404,12 @@
       </c>
     </row>
     <row r="164" spans="2:9">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
       <c r="E164" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F164" s="8">
+      <c r="F164" s="7">
         <v>1568</v>
       </c>
       <c r="I164" s="2" t="s">
@@ -7366,14 +7417,14 @@
       </c>
     </row>
     <row r="165" spans="2:9">
-      <c r="B165" s="5"/>
-      <c r="C165" s="5" t="s">
+      <c r="B165" s="8"/>
+      <c r="C165" s="8" t="s">
         <v>172</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F165" s="8">
+      <c r="F165" s="7">
         <v>5734</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -7381,12 +7432,12 @@
       </c>
     </row>
     <row r="166" spans="2:9">
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
       <c r="E166" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F166" s="8">
+      <c r="F166" s="7">
         <v>2589</v>
       </c>
       <c r="I166" s="2" t="s">
@@ -7394,12 +7445,12 @@
       </c>
     </row>
     <row r="167" spans="2:9">
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
       <c r="E167" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F167" s="8">
+      <c r="F167" s="7">
         <v>3063</v>
       </c>
       <c r="I167" s="2" t="s">
@@ -7407,12 +7458,12 @@
       </c>
     </row>
     <row r="168" spans="2:9">
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
       <c r="E168" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="5">
         <v>969</v>
       </c>
       <c r="I168" s="2" t="s">
@@ -7420,12 +7471,12 @@
       </c>
     </row>
     <row r="169" spans="2:9">
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
       <c r="E169" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F169" s="8">
+      <c r="F169" s="7">
         <v>1110</v>
       </c>
       <c r="I169" s="2" t="s">
@@ -7433,12 +7484,12 @@
       </c>
     </row>
     <row r="170" spans="2:9">
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
       <c r="E170" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F170" s="8">
+      <c r="F170" s="7">
         <v>1880</v>
       </c>
       <c r="I170" s="2" t="s">
@@ -7446,12 +7497,12 @@
       </c>
     </row>
     <row r="171" spans="2:9">
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
       <c r="E171" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F171" s="8">
+      <c r="F171" s="7">
         <v>3000</v>
       </c>
       <c r="I171" s="2" t="s">
@@ -7459,12 +7510,12 @@
       </c>
     </row>
     <row r="172" spans="2:9">
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
       <c r="E172" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F172" s="8">
+      <c r="F172" s="7">
         <v>7592</v>
       </c>
       <c r="I172" s="2" t="s">
@@ -7472,12 +7523,12 @@
       </c>
     </row>
     <row r="173" spans="2:9">
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
       <c r="E173" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F173" s="8">
+      <c r="F173" s="7">
         <v>4697</v>
       </c>
       <c r="I173" s="2" t="s">
@@ -7485,14 +7536,14 @@
       </c>
     </row>
     <row r="174" spans="2:9">
-      <c r="B174" s="5"/>
-      <c r="C174" s="5" t="s">
+      <c r="B174" s="8"/>
+      <c r="C174" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F174" s="8">
+      <c r="F174" s="7">
         <v>1010</v>
       </c>
       <c r="I174" s="2" t="s">
@@ -7500,12 +7551,12 @@
       </c>
     </row>
     <row r="175" spans="2:9">
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
       <c r="E175" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175" s="5">
         <v>910</v>
       </c>
       <c r="I175" s="2" t="s">
@@ -7513,12 +7564,12 @@
       </c>
     </row>
     <row r="176" spans="2:9">
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
       <c r="E176" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176" s="5">
         <v>265</v>
       </c>
       <c r="I176" s="2" t="s">
@@ -7526,12 +7577,12 @@
       </c>
     </row>
     <row r="177" spans="2:9">
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
       <c r="E177" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="5">
         <v>443</v>
       </c>
       <c r="I177" s="2" t="s">
@@ -7539,12 +7590,12 @@
       </c>
     </row>
     <row r="178" spans="2:9">
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
       <c r="E178" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178" s="5">
         <v>188</v>
       </c>
       <c r="I178" s="2" t="s">
@@ -7552,12 +7603,12 @@
       </c>
     </row>
     <row r="179" spans="2:9">
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
       <c r="E179" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="5">
         <v>21</v>
       </c>
       <c r="I179" s="2" t="s">
@@ -7565,12 +7616,12 @@
       </c>
     </row>
     <row r="180" spans="2:9">
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
       <c r="E180" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180" s="5">
         <v>133</v>
       </c>
       <c r="I180" s="2" t="s">
@@ -7578,12 +7629,12 @@
       </c>
     </row>
     <row r="181" spans="2:9">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
       <c r="E181" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181" s="5">
         <v>141</v>
       </c>
       <c r="I181" s="2" t="s">
@@ -7591,14 +7642,14 @@
       </c>
     </row>
     <row r="182" spans="2:9">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5" t="s">
+      <c r="B182" s="8"/>
+      <c r="C182" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F182" s="8">
+      <c r="F182" s="7">
         <v>1765</v>
       </c>
       <c r="I182" s="2" t="s">
@@ -7606,12 +7657,12 @@
       </c>
     </row>
     <row r="183" spans="2:9">
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
       <c r="E183" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F183" s="8">
+      <c r="F183" s="7">
         <v>1199</v>
       </c>
       <c r="I183" s="2" t="s">
@@ -7619,12 +7670,12 @@
       </c>
     </row>
     <row r="184" spans="2:9">
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
       <c r="E184" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F184" s="8">
+      <c r="F184" s="7">
         <v>1518</v>
       </c>
       <c r="I184" s="2" t="s">
@@ -7632,12 +7683,12 @@
       </c>
     </row>
     <row r="185" spans="2:9">
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
       <c r="E185" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185" s="5">
         <v>472</v>
       </c>
       <c r="I185" s="2" t="s">
@@ -7645,12 +7696,12 @@
       </c>
     </row>
     <row r="186" spans="2:9">
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
       <c r="E186" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F186" s="8">
+      <c r="F186" s="7">
         <v>4728</v>
       </c>
       <c r="I186" s="2" t="s">
@@ -7658,12 +7709,12 @@
       </c>
     </row>
     <row r="187" spans="2:9">
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
       <c r="E187" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F187" s="8">
+      <c r="F187" s="7">
         <v>1669</v>
       </c>
       <c r="I187" s="2" t="s">
@@ -7671,12 +7722,12 @@
       </c>
     </row>
     <row r="188" spans="2:9">
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
       <c r="E188" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="5">
         <v>116</v>
       </c>
       <c r="I188" s="2" t="s">
@@ -7684,12 +7735,12 @@
       </c>
     </row>
     <row r="189" spans="2:9">
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
       <c r="E189" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F189" s="8">
+      <c r="F189" s="7">
         <v>1592</v>
       </c>
       <c r="I189" s="2" t="s">
@@ -7697,12 +7748,12 @@
       </c>
     </row>
     <row r="190" spans="2:9">
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
       <c r="E190" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190" s="5">
         <v>850</v>
       </c>
       <c r="I190" s="2" t="s">
@@ -7710,12 +7761,12 @@
       </c>
     </row>
     <row r="191" spans="2:9">
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
       <c r="E191" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F191" s="8">
+      <c r="F191" s="7">
         <v>1091</v>
       </c>
       <c r="I191" s="2" t="s">
@@ -7723,12 +7774,12 @@
       </c>
     </row>
     <row r="192" spans="2:9">
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
       <c r="E192" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="5">
         <v>372</v>
       </c>
       <c r="I192" s="2" t="s">
@@ -7736,12 +7787,12 @@
       </c>
     </row>
     <row r="193" spans="2:9">
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
       <c r="E193" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193" s="5">
         <v>244</v>
       </c>
       <c r="I193" s="2" t="s">
@@ -7749,12 +7800,12 @@
       </c>
     </row>
     <row r="194" spans="2:9">
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
       <c r="E194" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194" s="5">
         <v>590</v>
       </c>
       <c r="I194" s="2" t="s">
@@ -7762,12 +7813,12 @@
       </c>
     </row>
     <row r="195" spans="2:9">
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
       <c r="E195" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195" s="5">
         <v>36</v>
       </c>
       <c r="I195" s="2" t="s">
@@ -7775,12 +7826,12 @@
       </c>
     </row>
     <row r="196" spans="2:9">
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
       <c r="E196" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F196" s="8">
+      <c r="F196" s="7">
         <v>3200</v>
       </c>
       <c r="I196" s="2" t="s">
@@ -7788,12 +7839,12 @@
       </c>
     </row>
     <row r="197" spans="2:9">
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
       <c r="E197" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197" s="5">
         <v>545</v>
       </c>
       <c r="I197" s="2" t="s">
@@ -7801,12 +7852,12 @@
       </c>
     </row>
     <row r="198" spans="2:9">
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
       <c r="E198" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198" s="5">
         <v>36</v>
       </c>
       <c r="I198" s="2" t="s">
@@ -7814,14 +7865,14 @@
       </c>
     </row>
     <row r="199" spans="2:9">
-      <c r="B199" s="5"/>
-      <c r="C199" s="5" t="s">
+      <c r="B199" s="8"/>
+      <c r="C199" s="8" t="s">
         <v>209</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F199" s="8">
+      <c r="F199" s="7">
         <v>17208</v>
       </c>
       <c r="I199" s="2" t="s">
@@ -7829,12 +7880,12 @@
       </c>
     </row>
     <row r="200" spans="2:9">
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
       <c r="E200" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F200" s="8">
+      <c r="F200" s="7">
         <v>3777</v>
       </c>
       <c r="I200" s="2" t="s">
@@ -7842,12 +7893,12 @@
       </c>
     </row>
     <row r="201" spans="2:9">
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
       <c r="E201" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F201" s="8">
+      <c r="F201" s="7">
         <v>3067</v>
       </c>
       <c r="I201" s="2" t="s">
@@ -7855,12 +7906,12 @@
       </c>
     </row>
     <row r="202" spans="2:9">
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
       <c r="E202" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F202" s="8">
+      <c r="F202" s="7">
         <v>1427</v>
       </c>
       <c r="I202" s="2" t="s">
@@ -7868,12 +7919,12 @@
       </c>
     </row>
     <row r="203" spans="2:9">
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
       <c r="E203" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F203" s="5">
         <v>311</v>
       </c>
       <c r="I203" s="2" t="s">
@@ -7881,12 +7932,12 @@
       </c>
     </row>
     <row r="204" spans="2:9">
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
       <c r="E204" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F204" s="5">
         <v>215</v>
       </c>
       <c r="I204" s="2" t="s">
@@ -7894,14 +7945,14 @@
       </c>
     </row>
     <row r="205" spans="2:9">
-      <c r="B205" s="5"/>
-      <c r="C205" s="5" t="s">
+      <c r="B205" s="8"/>
+      <c r="C205" s="8" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F205" s="5">
         <v>317</v>
       </c>
       <c r="I205" s="2" t="s">
@@ -7909,12 +7960,12 @@
       </c>
     </row>
     <row r="206" spans="2:9">
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
       <c r="E206" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F206" s="8">
+      <c r="F206" s="7">
         <v>1590</v>
       </c>
       <c r="I206" s="2" t="s">
@@ -7922,12 +7973,12 @@
       </c>
     </row>
     <row r="207" spans="2:9">
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
       <c r="E207" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F207" s="8">
+      <c r="F207" s="7">
         <v>1263</v>
       </c>
       <c r="I207" s="2" t="s">
@@ -7935,12 +7986,12 @@
       </c>
     </row>
     <row r="208" spans="2:9">
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
       <c r="E208" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F208" s="8">
+      <c r="F208" s="7">
         <v>1199</v>
       </c>
       <c r="I208" s="2" t="s">
@@ -7948,12 +7999,12 @@
       </c>
     </row>
     <row r="209" spans="2:9">
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
       <c r="E209" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F209" s="8">
+      <c r="F209" s="7">
         <v>1467</v>
       </c>
       <c r="I209" s="2" t="s">
@@ -7961,12 +8012,12 @@
       </c>
     </row>
     <row r="210" spans="2:9">
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
       <c r="E210" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F210" s="8">
+      <c r="F210" s="7">
         <v>2671</v>
       </c>
       <c r="I210" s="2" t="s">
@@ -7974,12 +8025,12 @@
       </c>
     </row>
     <row r="211" spans="2:9">
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
       <c r="E211" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F211" s="8">
+      <c r="F211" s="7">
         <v>1784</v>
       </c>
       <c r="I211" s="2" t="s">
@@ -7987,12 +8038,12 @@
       </c>
     </row>
     <row r="212" spans="2:9">
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
       <c r="E212" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F212" s="8">
+      <c r="F212" s="7">
         <v>1284</v>
       </c>
       <c r="I212" s="2" t="s">
@@ -8000,12 +8051,12 @@
       </c>
     </row>
     <row r="213" spans="2:9">
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
       <c r="E213" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F213" s="6">
+      <c r="F213" s="5">
         <v>977</v>
       </c>
       <c r="I213" s="2" t="s">
@@ -8013,12 +8064,12 @@
       </c>
     </row>
     <row r="214" spans="2:9">
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
       <c r="E214" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214" s="5">
         <v>413</v>
       </c>
       <c r="I214" s="2" t="s">
@@ -8026,12 +8077,12 @@
       </c>
     </row>
     <row r="215" spans="2:9">
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
       <c r="E215" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F215" s="6">
+      <c r="F215" s="5">
         <v>343</v>
       </c>
       <c r="I215" s="2" t="s">
@@ -8039,12 +8090,12 @@
       </c>
     </row>
     <row r="216" spans="2:9">
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
       <c r="E216" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F216" s="6">
+      <c r="F216" s="5">
         <v>167</v>
       </c>
       <c r="I216" s="2" t="s">
@@ -8052,12 +8103,12 @@
       </c>
     </row>
     <row r="217" spans="2:9">
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
       <c r="E217" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F217" s="6">
+      <c r="F217" s="5">
         <v>191</v>
       </c>
       <c r="I217" s="2" t="s">
@@ -8065,12 +8116,12 @@
       </c>
     </row>
     <row r="218" spans="2:9">
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
       <c r="E218" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F218" s="6">
+      <c r="F218" s="5">
         <v>341</v>
       </c>
       <c r="I218" s="2" t="s">
@@ -8078,12 +8129,12 @@
       </c>
     </row>
     <row r="219" spans="2:9">
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
       <c r="E219" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F219" s="6">
+      <c r="F219" s="5">
         <v>43</v>
       </c>
       <c r="I219" s="2" t="s">
@@ -8091,12 +8142,12 @@
       </c>
     </row>
     <row r="220" spans="2:9">
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
       <c r="E220" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F220" s="6">
+      <c r="F220" s="5">
         <v>772</v>
       </c>
       <c r="I220" s="2" t="s">
@@ -8104,12 +8155,12 @@
       </c>
     </row>
     <row r="221" spans="2:9">
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
       <c r="E221" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F221" s="5">
         <v>11</v>
       </c>
       <c r="I221" s="2" t="s">
@@ -8117,12 +8168,12 @@
       </c>
     </row>
     <row r="222" spans="2:9">
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
       <c r="E222" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F222" s="6">
+      <c r="F222" s="5">
         <v>400</v>
       </c>
       <c r="I222" s="2" t="s">
@@ -8130,14 +8181,14 @@
       </c>
     </row>
     <row r="223" spans="2:9">
-      <c r="B223" s="5"/>
-      <c r="C223" s="5" t="s">
+      <c r="B223" s="8"/>
+      <c r="C223" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F223" s="5">
         <v>681</v>
       </c>
       <c r="I223" s="2" t="s">
@@ -8145,12 +8196,12 @@
       </c>
     </row>
     <row r="224" spans="2:9">
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
       <c r="E224" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F224" s="5">
         <v>545</v>
       </c>
       <c r="I224" s="2" t="s">
@@ -8158,12 +8209,12 @@
       </c>
     </row>
     <row r="225" spans="2:9">
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
       <c r="E225" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F225" s="5">
         <v>984</v>
       </c>
       <c r="I225" s="2" t="s">
@@ -8171,12 +8222,12 @@
       </c>
     </row>
     <row r="226" spans="2:9">
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
       <c r="E226" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226" s="5">
         <v>91</v>
       </c>
       <c r="I226" s="2" t="s">
@@ -8184,12 +8235,12 @@
       </c>
     </row>
     <row r="227" spans="2:9">
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
       <c r="E227" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F227" s="5">
         <v>327</v>
       </c>
       <c r="I227" s="2" t="s">
@@ -8197,12 +8248,12 @@
       </c>
     </row>
     <row r="228" spans="2:9">
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
       <c r="E228" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F228" s="5">
         <v>276</v>
       </c>
       <c r="I228" s="2" t="s">
@@ -8210,12 +8261,12 @@
       </c>
     </row>
     <row r="229" spans="2:9">
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
       <c r="E229" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229" s="5">
         <v>395</v>
       </c>
       <c r="I229" s="2" t="s">
@@ -8223,12 +8274,12 @@
       </c>
     </row>
     <row r="230" spans="2:9">
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
       <c r="E230" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F230" s="6">
+      <c r="F230" s="5">
         <v>235</v>
       </c>
       <c r="I230" s="2" t="s">
@@ -8236,12 +8287,12 @@
       </c>
     </row>
     <row r="231" spans="2:9">
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
       <c r="E231" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F231" s="5">
         <v>277</v>
       </c>
       <c r="I231" s="2" t="s">
@@ -8249,12 +8300,12 @@
       </c>
     </row>
     <row r="232" spans="2:9">
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
       <c r="E232" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F232" s="5">
         <v>211</v>
       </c>
       <c r="I232" s="2" t="s">
@@ -8262,12 +8313,12 @@
       </c>
     </row>
     <row r="233" spans="2:9">
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
       <c r="E233" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233" s="5">
         <v>175</v>
       </c>
       <c r="I233" s="2" t="s">
@@ -8275,12 +8326,12 @@
       </c>
     </row>
     <row r="234" spans="2:9">
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
       <c r="E234" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F234" s="6">
+      <c r="F234" s="5">
         <v>34</v>
       </c>
       <c r="I234" s="2" t="s">
@@ -8288,12 +8339,12 @@
       </c>
     </row>
     <row r="235" spans="2:9">
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
       <c r="E235" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235" s="5">
         <v>34</v>
       </c>
       <c r="I235" s="2" t="s">
@@ -8301,12 +8352,12 @@
       </c>
     </row>
     <row r="236" spans="2:9">
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
       <c r="E236" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F236" s="5">
         <v>61</v>
       </c>
       <c r="I236" s="2" t="s">
@@ -8314,12 +8365,12 @@
       </c>
     </row>
     <row r="237" spans="2:9">
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
       <c r="E237" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F237" s="6">
+      <c r="F237" s="5">
         <v>79</v>
       </c>
       <c r="I237" s="2" t="s">
@@ -8327,12 +8378,12 @@
       </c>
     </row>
     <row r="238" spans="2:9">
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
       <c r="E238" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F238" s="5">
         <v>228</v>
       </c>
       <c r="I238" s="2" t="s">
@@ -8340,12 +8391,12 @@
       </c>
     </row>
     <row r="239" spans="2:9">
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
       <c r="E239" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F239" s="8">
+      <c r="F239" s="7">
         <v>4013</v>
       </c>
       <c r="I239" s="2" t="s">
@@ -8353,12 +8404,12 @@
       </c>
     </row>
     <row r="240" spans="2:9">
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
       <c r="E240" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F240" s="8">
+      <c r="F240" s="7">
         <v>1789</v>
       </c>
       <c r="I240" s="2" t="s">
@@ -8366,12 +8417,12 @@
       </c>
     </row>
     <row r="241" spans="2:9">
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
       <c r="E241" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F241" s="8">
+      <c r="F241" s="7">
         <v>3363</v>
       </c>
       <c r="I241" s="2" t="s">
@@ -8379,12 +8430,12 @@
       </c>
     </row>
     <row r="242" spans="2:9">
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
       <c r="E242" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F242" s="8">
+      <c r="F242" s="7">
         <v>1057</v>
       </c>
       <c r="I242" s="2" t="s">
@@ -8392,12 +8443,12 @@
       </c>
     </row>
     <row r="243" spans="2:9">
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
       <c r="E243" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F243" s="6">
+      <c r="F243" s="5">
         <v>639</v>
       </c>
       <c r="I243" s="2" t="s">
@@ -8405,12 +8456,12 @@
       </c>
     </row>
     <row r="244" spans="2:9">
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
       <c r="E244" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F244" s="5">
         <v>93</v>
       </c>
       <c r="I244" s="2" t="s">
@@ -8418,23 +8469,43 @@
       </c>
     </row>
     <row r="245" spans="2:9">
-      <c r="F245" s="6">
+      <c r="F245" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="246" spans="2:9">
-      <c r="F246" s="6">
+      <c r="F246" s="5">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="C223:C244"/>
+    <mergeCell ref="B223:B244"/>
+    <mergeCell ref="C182:C198"/>
+    <mergeCell ref="B182:B198"/>
+    <mergeCell ref="C199:C204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B222"/>
+    <mergeCell ref="C205:C222"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="C165:C173"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C114:C124"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="C125:C133"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C134:C159"/>
+    <mergeCell ref="B134:B159"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="C82:C92"/>
+    <mergeCell ref="C93:C106"/>
+    <mergeCell ref="B93:B106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="B107:B113"/>
     <mergeCell ref="C57:C68"/>
     <mergeCell ref="B57:B68"/>
     <mergeCell ref="C69:C81"/>
@@ -8445,32 +8516,12 @@
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B82:B92"/>
-    <mergeCell ref="C82:C92"/>
-    <mergeCell ref="C93:C106"/>
-    <mergeCell ref="B93:B106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="C125:C133"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="C134:C159"/>
-    <mergeCell ref="B134:B159"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="C165:C173"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C223:C244"/>
-    <mergeCell ref="B223:B244"/>
-    <mergeCell ref="C182:C198"/>
-    <mergeCell ref="B182:B198"/>
-    <mergeCell ref="C199:C204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B222"/>
-    <mergeCell ref="C205:C222"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="C17:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/잡코리아 직무코드.xlsx
+++ b/잡코리아 직무코드.xlsx
@@ -5108,8 +5108,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E244"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5587,7 +5587,9 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="8"/>
+      <c r="B30" s="8">
+        <v>10032</v>
+      </c>
       <c r="C30" s="8" t="s">
         <v>261</v>
       </c>
@@ -5861,9 +5863,14 @@
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="8"/>
+      <c r="B47" s="8">
+        <v>10034</v>
+      </c>
       <c r="C47" s="8" t="s">
         <v>262</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1000270</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>310</v>
@@ -5878,6 +5885,9 @@
     <row r="48" spans="2:9">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
+      <c r="D48" s="2">
+        <v>1000271</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>311</v>
       </c>
@@ -5891,6 +5901,9 @@
     <row r="49" spans="2:9">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
+      <c r="D49" s="2">
+        <v>1000272</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>312</v>
       </c>
@@ -5904,6 +5917,9 @@
     <row r="50" spans="2:9">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
+      <c r="D50" s="2">
+        <v>1000273</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>313</v>
       </c>
@@ -5917,6 +5933,9 @@
     <row r="51" spans="2:9">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
+      <c r="D51" s="2">
+        <v>1000274</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>314</v>
       </c>
@@ -5930,6 +5949,9 @@
     <row r="52" spans="2:9">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
+      <c r="D52" s="2">
+        <v>1000275</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>315</v>
       </c>
@@ -5943,6 +5965,9 @@
     <row r="53" spans="2:9">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
+      <c r="D53" s="2">
+        <v>1000276</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>316</v>
       </c>
@@ -5954,9 +5979,14 @@
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="8"/>
+      <c r="B54" s="8">
+        <v>10036</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1000286</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>317</v>
@@ -5971,6 +6001,9 @@
     <row r="55" spans="2:9">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
+      <c r="D55" s="2">
+        <v>1000287</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>318</v>
       </c>
@@ -5984,6 +6017,9 @@
     <row r="56" spans="2:9">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
+      <c r="D56" s="2">
+        <v>1000288</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>319</v>
       </c>
@@ -5995,9 +6031,14 @@
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="8"/>
+      <c r="B57" s="8">
+        <v>10038</v>
+      </c>
       <c r="C57" s="8" t="s">
         <v>263</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1000297</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>320</v>
@@ -6012,6 +6053,9 @@
     <row r="58" spans="2:9">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
+      <c r="D58" s="2">
+        <v>1000298</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>321</v>
       </c>
@@ -6025,6 +6069,9 @@
     <row r="59" spans="2:9">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
+      <c r="D59" s="2">
+        <v>1000299</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>322</v>
       </c>
@@ -6038,6 +6085,9 @@
     <row r="60" spans="2:9">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
+      <c r="D60" s="2">
+        <v>1000300</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>323</v>
       </c>
@@ -6051,6 +6101,9 @@
     <row r="61" spans="2:9">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
+      <c r="D61" s="2">
+        <v>1000301</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>324</v>
       </c>
@@ -6064,6 +6117,9 @@
     <row r="62" spans="2:9">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
+      <c r="D62" s="2">
+        <v>1000302</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>325</v>
       </c>
@@ -6077,6 +6133,9 @@
     <row r="63" spans="2:9">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
+      <c r="D63" s="2">
+        <v>1000303</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>326</v>
       </c>
@@ -6090,6 +6149,9 @@
     <row r="64" spans="2:9">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
+      <c r="D64" s="2">
+        <v>1000304</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>327</v>
       </c>
@@ -6103,6 +6165,9 @@
     <row r="65" spans="2:9">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
+      <c r="D65" s="2">
+        <v>1000305</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>328</v>
       </c>
@@ -6116,6 +6181,9 @@
     <row r="66" spans="2:9">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
+      <c r="D66" s="2">
+        <v>1000306</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>329</v>
       </c>
@@ -6129,6 +6197,9 @@
     <row r="67" spans="2:9">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
+      <c r="D67" s="2">
+        <v>1000307</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>330</v>
       </c>
@@ -6142,6 +6213,9 @@
     <row r="68" spans="2:9">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
+      <c r="D68" s="2">
+        <v>1000308</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>331</v>
       </c>
@@ -6153,9 +6227,14 @@
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="8"/>
+      <c r="B69" s="8">
+        <v>10040</v>
+      </c>
       <c r="C69" s="8" t="s">
         <v>264</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1000326</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>332</v>
@@ -6170,6 +6249,9 @@
     <row r="70" spans="2:9">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
+      <c r="D70" s="2">
+        <v>1000327</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>333</v>
       </c>
@@ -6183,6 +6265,9 @@
     <row r="71" spans="2:9">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
+      <c r="D71" s="2">
+        <v>1000328</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>334</v>
       </c>
@@ -6196,6 +6281,9 @@
     <row r="72" spans="2:9">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
+      <c r="D72" s="2">
+        <v>1000329</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>335</v>
       </c>
@@ -6209,6 +6297,9 @@
     <row r="73" spans="2:9">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
+      <c r="D73" s="2">
+        <v>1000330</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>336</v>
       </c>
@@ -6222,6 +6313,9 @@
     <row r="74" spans="2:9">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
+      <c r="D74" s="2">
+        <v>1000331</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>337</v>
       </c>
@@ -6235,6 +6329,9 @@
     <row r="75" spans="2:9">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
+      <c r="D75" s="2">
+        <v>1000332</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>338</v>
       </c>
@@ -6248,6 +6345,9 @@
     <row r="76" spans="2:9">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
+      <c r="D76" s="2">
+        <v>1000333</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>339</v>
       </c>
@@ -6261,6 +6361,9 @@
     <row r="77" spans="2:9">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
+      <c r="D77" s="2">
+        <v>1000334</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>340</v>
       </c>
@@ -6274,6 +6377,9 @@
     <row r="78" spans="2:9">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
+      <c r="D78" s="2">
+        <v>1000335</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>341</v>
       </c>
@@ -6287,6 +6393,9 @@
     <row r="79" spans="2:9">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
+      <c r="D79" s="2">
+        <v>1000336</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>342</v>
       </c>
@@ -6300,6 +6409,9 @@
     <row r="80" spans="2:9">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
+      <c r="D80" s="2">
+        <v>1000337</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>343</v>
       </c>
@@ -6313,6 +6425,9 @@
     <row r="81" spans="2:9">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
+      <c r="D81" s="2">
+        <v>1000424</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>344</v>
       </c>
@@ -6324,9 +6439,14 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="8"/>
+      <c r="B82" s="8">
+        <v>10042</v>
+      </c>
       <c r="C82" s="8" t="s">
         <v>265</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1000344</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>345</v>
@@ -6341,6 +6461,9 @@
     <row r="83" spans="2:9">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
+      <c r="D83" s="2">
+        <v>1000345</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>346</v>
       </c>
@@ -6354,6 +6477,9 @@
     <row r="84" spans="2:9">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
+      <c r="D84" s="2">
+        <v>1000346</v>
+      </c>
       <c r="E84" s="2" t="s">
         <v>347</v>
       </c>
@@ -6367,6 +6493,9 @@
     <row r="85" spans="2:9">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
+      <c r="D85" s="2">
+        <v>1000347</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>348</v>
       </c>
@@ -6380,6 +6509,9 @@
     <row r="86" spans="2:9">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
+      <c r="D86" s="2">
+        <v>1000348</v>
+      </c>
       <c r="E86" s="2" t="s">
         <v>349</v>
       </c>
@@ -6393,6 +6525,9 @@
     <row r="87" spans="2:9">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
+      <c r="D87" s="2">
+        <v>1000349</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>350</v>
       </c>
@@ -6406,6 +6541,9 @@
     <row r="88" spans="2:9">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
+      <c r="D88" s="2">
+        <v>1000350</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>351</v>
       </c>
@@ -6419,6 +6557,9 @@
     <row r="89" spans="2:9">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
+      <c r="D89" s="2">
+        <v>1000351</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>352</v>
       </c>
@@ -6432,6 +6573,9 @@
     <row r="90" spans="2:9">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
+      <c r="D90" s="2">
+        <v>1000352</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>353</v>
       </c>
@@ -6445,6 +6589,9 @@
     <row r="91" spans="2:9">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
+      <c r="D91" s="2">
+        <v>1000353</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>354</v>
       </c>
@@ -6458,6 +6605,9 @@
     <row r="92" spans="2:9">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
+      <c r="D92" s="2">
+        <v>1000425</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>355</v>
       </c>
@@ -6469,9 +6619,14 @@
       </c>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="8"/>
+      <c r="B93" s="8">
+        <v>10044</v>
+      </c>
       <c r="C93" s="8" t="s">
         <v>266</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1000372</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>356</v>
@@ -6486,6 +6641,9 @@
     <row r="94" spans="2:9">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
+      <c r="D94" s="2">
+        <v>1000373</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>357</v>
       </c>
@@ -6499,6 +6657,9 @@
     <row r="95" spans="2:9">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
+      <c r="D95" s="2">
+        <v>1000374</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>358</v>
       </c>
@@ -6512,6 +6673,9 @@
     <row r="96" spans="2:9">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
+      <c r="D96" s="2">
+        <v>1000375</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>359</v>
       </c>
@@ -6525,6 +6689,9 @@
     <row r="97" spans="2:9">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
+      <c r="D97" s="2">
+        <v>1000376</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>360</v>
       </c>
@@ -6538,6 +6705,9 @@
     <row r="98" spans="2:9">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
+      <c r="D98" s="2">
+        <v>1000377</v>
+      </c>
       <c r="E98" s="2" t="s">
         <v>361</v>
       </c>
@@ -6551,6 +6721,9 @@
     <row r="99" spans="2:9">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
+      <c r="D99" s="2">
+        <v>1000378</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>362</v>
       </c>
@@ -6564,6 +6737,9 @@
     <row r="100" spans="2:9">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
+      <c r="D100" s="2">
+        <v>1000379</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>363</v>
       </c>
@@ -6577,6 +6753,9 @@
     <row r="101" spans="2:9">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
+      <c r="D101" s="2">
+        <v>1000380</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>364</v>
       </c>
@@ -6590,6 +6769,9 @@
     <row r="102" spans="2:9">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
+      <c r="D102" s="2">
+        <v>1000381</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>365</v>
       </c>
@@ -6603,6 +6785,9 @@
     <row r="103" spans="2:9">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
+      <c r="D103" s="2">
+        <v>1000382</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>366</v>
       </c>
@@ -6616,6 +6801,9 @@
     <row r="104" spans="2:9">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
+      <c r="D104" s="2">
+        <v>1000383</v>
+      </c>
       <c r="E104" s="2" t="s">
         <v>367</v>
       </c>
@@ -6629,6 +6817,9 @@
     <row r="105" spans="2:9">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
+      <c r="D105" s="2">
+        <v>1000384</v>
+      </c>
       <c r="E105" s="2" t="s">
         <v>368</v>
       </c>
@@ -6642,6 +6833,9 @@
     <row r="106" spans="2:9">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
+      <c r="D106" s="2">
+        <v>1000385</v>
+      </c>
       <c r="E106" s="2" t="s">
         <v>369</v>
       </c>
@@ -6653,9 +6847,14 @@
       </c>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="8"/>
+      <c r="B107" s="8">
+        <v>10046</v>
+      </c>
       <c r="C107" s="8" t="s">
         <v>267</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1000407</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>370</v>
@@ -6670,6 +6869,9 @@
     <row r="108" spans="2:9">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
+      <c r="D108" s="2">
+        <v>1000408</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>371</v>
       </c>
@@ -6683,6 +6885,9 @@
     <row r="109" spans="2:9">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
+      <c r="D109" s="2">
+        <v>1000409</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>372</v>
       </c>
@@ -6696,6 +6901,9 @@
     <row r="110" spans="2:9">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
+      <c r="D110" s="2">
+        <v>1000410</v>
+      </c>
       <c r="E110" s="2" t="s">
         <v>373</v>
       </c>
@@ -6709,6 +6917,9 @@
     <row r="111" spans="2:9">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
+      <c r="D111" s="2">
+        <v>1000411</v>
+      </c>
       <c r="E111" s="2" t="s">
         <v>374</v>
       </c>
@@ -6722,6 +6933,9 @@
     <row r="112" spans="2:9">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
+      <c r="D112" s="2">
+        <v>1000412</v>
+      </c>
       <c r="E112" s="2" t="s">
         <v>375</v>
       </c>
@@ -6735,6 +6949,9 @@
     <row r="113" spans="2:9">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
+      <c r="D113" s="2">
+        <v>1000413</v>
+      </c>
       <c r="E113" s="2" t="s">
         <v>376</v>
       </c>
@@ -6746,7 +6963,9 @@
       </c>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="8"/>
+      <c r="B114" s="8">
+        <v>10048</v>
+      </c>
       <c r="C114" s="8" t="s">
         <v>117</v>
       </c>
@@ -6891,7 +7110,9 @@
       </c>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="8"/>
+      <c r="B125" s="8">
+        <v>10050</v>
+      </c>
       <c r="C125" s="8" t="s">
         <v>129</v>
       </c>
@@ -7010,7 +7231,9 @@
       </c>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="8"/>
+      <c r="B134" s="8">
+        <v>10052</v>
+      </c>
       <c r="C134" s="8" t="s">
         <v>139</v>
       </c>
@@ -7350,7 +7573,9 @@
       </c>
     </row>
     <row r="160" spans="2:9">
-      <c r="B160" s="8"/>
+      <c r="B160" s="8">
+        <v>10054</v>
+      </c>
       <c r="C160" s="8" t="s">
         <v>166</v>
       </c>
@@ -7417,7 +7642,9 @@
       </c>
     </row>
     <row r="165" spans="2:9">
-      <c r="B165" s="8"/>
+      <c r="B165" s="8">
+        <v>10056</v>
+      </c>
       <c r="C165" s="8" t="s">
         <v>172</v>
       </c>
@@ -7536,7 +7763,9 @@
       </c>
     </row>
     <row r="174" spans="2:9">
-      <c r="B174" s="8"/>
+      <c r="B174" s="8">
+        <v>10058</v>
+      </c>
       <c r="C174" s="8" t="s">
         <v>182</v>
       </c>
@@ -7642,7 +7871,9 @@
       </c>
     </row>
     <row r="182" spans="2:9">
-      <c r="B182" s="8"/>
+      <c r="B182" s="8">
+        <v>10060</v>
+      </c>
       <c r="C182" s="8" t="s">
         <v>191</v>
       </c>
@@ -8480,32 +8711,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C223:C244"/>
-    <mergeCell ref="B223:B244"/>
-    <mergeCell ref="C182:C198"/>
-    <mergeCell ref="B182:B198"/>
-    <mergeCell ref="C199:C204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B222"/>
-    <mergeCell ref="C205:C222"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="C165:C173"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="C125:C133"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="C134:C159"/>
-    <mergeCell ref="B134:B159"/>
-    <mergeCell ref="B82:B92"/>
-    <mergeCell ref="C82:C92"/>
-    <mergeCell ref="C93:C106"/>
-    <mergeCell ref="B93:B106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="C17:C29"/>
     <mergeCell ref="C57:C68"/>
     <mergeCell ref="B57:B68"/>
     <mergeCell ref="C69:C81"/>
@@ -8516,12 +8727,32 @@
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="C82:C92"/>
+    <mergeCell ref="C93:C106"/>
+    <mergeCell ref="B93:B106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C114:C124"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="C125:C133"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C134:C159"/>
+    <mergeCell ref="B134:B159"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="C165:C173"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C223:C244"/>
+    <mergeCell ref="B223:B244"/>
+    <mergeCell ref="C182:C198"/>
+    <mergeCell ref="B182:B198"/>
+    <mergeCell ref="C199:C204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B222"/>
+    <mergeCell ref="C205:C222"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/잡코리아 직무코드.xlsx
+++ b/잡코리아 직무코드.xlsx
@@ -5108,8 +5108,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:D113"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8711,12 +8711,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="C223:C244"/>
+    <mergeCell ref="B223:B244"/>
+    <mergeCell ref="C182:C198"/>
+    <mergeCell ref="B182:B198"/>
+    <mergeCell ref="C199:C204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B222"/>
+    <mergeCell ref="C205:C222"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="C165:C173"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="C114:C124"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="C125:C133"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C134:C159"/>
+    <mergeCell ref="B134:B159"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="C82:C92"/>
+    <mergeCell ref="C93:C106"/>
+    <mergeCell ref="B93:B106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="B107:B113"/>
     <mergeCell ref="C57:C68"/>
     <mergeCell ref="B57:B68"/>
     <mergeCell ref="C69:C81"/>
@@ -8727,32 +8747,12 @@
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B82:B92"/>
-    <mergeCell ref="C82:C92"/>
-    <mergeCell ref="C93:C106"/>
-    <mergeCell ref="B93:B106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="C125:C133"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="C134:C159"/>
-    <mergeCell ref="B134:B159"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="C165:C173"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="C223:C244"/>
-    <mergeCell ref="B223:B244"/>
-    <mergeCell ref="C182:C198"/>
-    <mergeCell ref="B182:B198"/>
-    <mergeCell ref="C199:C204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B222"/>
-    <mergeCell ref="C205:C222"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="C17:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
